--- a/files/data/inventario_vitalix_plus.xlsx
+++ b/files/data/inventario_vitalix_plus.xlsx
@@ -1,26 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29523"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yeison Mena\Desktop\vitalixplus-inventario-service\files\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B8F99F-44DD-4C41-82B1-2A6C3F827EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5A77330-5730-44B2-889B-C5AB21DDEBB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4395" yWindow="-16200" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EXPORT" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="425">
   <si>
     <t>Código</t>
   </si>
@@ -61,9 +77,15 @@
     <t>Total Precio</t>
   </si>
   <si>
+    <t>Categoría</t>
+  </si>
+  <si>
     <t>ACEITE ARGAN SOBRE LEHIT X 12 GR.</t>
   </si>
   <si>
+    <t>Cosmético</t>
+  </si>
+  <si>
     <t>ACEITE ARGAN SOBRES</t>
   </si>
   <si>
@@ -77,6 +99,9 @@
   </si>
   <si>
     <t>ACETAMINOFEN 500 MG + CAFEINA</t>
+  </si>
+  <si>
+    <t>Otros</t>
   </si>
   <si>
     <t>65MG
@@ -95,6 +120,9 @@
     <t>ACONDICIONADOR HIDRATACION</t>
   </si>
   <si>
+    <t>Cuidado Capilar</t>
+  </si>
+  <si>
     <t>INTENSA MUSS
 ACONDICIONADOR MARIA SALOME</t>
   </si>
@@ -129,6 +157,9 @@
     <t>ADVIL GRIPA MAX X 40</t>
   </si>
   <si>
+    <t>Medicamento</t>
+  </si>
+  <si>
     <t>AGUA INN  X 600 ML</t>
   </si>
   <si>
@@ -138,6 +169,9 @@
     <t>ALGODON 100 GR.</t>
   </si>
   <si>
+    <t>Insumos Médicos</t>
+  </si>
+  <si>
     <t>ALGODON 50 G.</t>
   </si>
   <si>
@@ -168,6 +202,9 @@
     <t>ARRURRU COLONIA 120 ML ROSADO</t>
   </si>
   <si>
+    <t>Perfumería</t>
+  </si>
+  <si>
     <t>ARRURRU COLONIA ROSADA X 30 ML</t>
   </si>
   <si>
@@ -195,6 +232,9 @@
     <t>BALANCE DUO CREMA SOBRE</t>
   </si>
   <si>
+    <t>Cuidado Piel</t>
+  </si>
+  <si>
     <t>BALANCE MEN CLINICAL</t>
   </si>
   <si>
@@ -216,6 +256,9 @@
     <t>BASE ESSENTIAL TONO MIEL</t>
   </si>
   <si>
+    <t>Maquillaje</t>
+  </si>
+  <si>
     <t>BASE LIQUIDA NAILEN # 2</t>
   </si>
   <si>
@@ -349,6 +392,9 @@
   </si>
   <si>
     <t>DOVE DESODORANTE SOBRES</t>
+  </si>
+  <si>
+    <t>Higiene</t>
   </si>
   <si>
     <t>EGO GEL X 80 ML</t>
@@ -1138,6 +1184,9 @@
   </si>
   <si>
     <t>PRESERVATIVO  XTREM X 3</t>
+  </si>
+  <si>
+    <t>Salud Sexual</t>
   </si>
   <si>
     <t>CASSETE
@@ -1292,7 +1341,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1306,6 +1355,19 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1315,7 +1377,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1330,11 +1392,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1363,11 +1440,33 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1381,9 +1480,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="export_inventario" displayName="export_inventario" ref="A1:M404" totalsRowShown="0">
-  <autoFilter ref="A1:M404" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="export_inventario" displayName="export_inventario" ref="A1:N404" totalsRowShown="0">
+  <autoFilter ref="A1:N404" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Código"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Descripción"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="S. Ent"/>
@@ -1397,6 +1496,7 @@
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Utilidad"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Precio Neto"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Total Precio"/>
+    <tableColumn id="14" xr3:uid="{327E740A-BBCF-4231-95D9-01C709CD20AC}" name="Categoría" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1690,13 +1790,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:M404"/>
+  <dimension ref="A1:N404"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
       <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64.7109375" bestFit="1" customWidth="1"/>
@@ -1708,7 +1808,7 @@
     <col min="12" max="13" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1748,13 +1848,16 @@
       <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N1" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="18.75" customHeight="1">
       <c r="A2" s="5">
         <v>54040</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
@@ -1789,13 +1892,16 @@
       <c r="M2" s="7">
         <v>2500</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N2" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="18.75" customHeight="1">
       <c r="A3" s="5">
         <v>55655</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" s="6">
         <v>2</v>
@@ -1830,13 +1936,16 @@
       <c r="M3" s="7">
         <v>5200</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N3" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="18.75" customHeight="1">
       <c r="A4" s="5">
         <v>55429</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="6">
         <v>11</v>
@@ -1871,13 +1980,16 @@
       <c r="M4" s="7">
         <v>33000</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N4" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="18.75" customHeight="1">
       <c r="A5" s="5">
         <v>55916</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="6">
         <v>38</v>
@@ -1912,13 +2024,16 @@
       <c r="M5" s="7">
         <v>76000</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N5" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="18.75" customHeight="1">
       <c r="A6" s="5">
         <v>54839</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -1953,13 +2068,16 @@
       <c r="M6" s="7">
         <v>3000</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N6" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="18.75" customHeight="1">
       <c r="A7" s="5">
         <v>55375</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="6">
         <v>2</v>
@@ -1994,13 +2112,16 @@
       <c r="M7" s="7">
         <v>135000</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N7" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="31.5" customHeight="1">
       <c r="A8" s="5">
         <v>55307</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C8" s="6">
         <v>3</v>
@@ -2035,13 +2156,16 @@
       <c r="M8" s="7">
         <v>44700</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N8" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="18.75" customHeight="1">
       <c r="A9" s="5">
         <v>55202</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C9" s="6">
         <v>10</v>
@@ -2076,13 +2200,16 @@
       <c r="M9" s="7">
         <v>15000</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N9" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="18.75" customHeight="1">
       <c r="A10" s="5">
         <v>55104</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C10" s="6">
         <v>10</v>
@@ -2117,13 +2244,16 @@
       <c r="M10" s="7">
         <v>119000</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N10" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="18.75" customHeight="1">
       <c r="A11" s="5">
         <v>54445</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C11" s="6">
         <v>0</v>
@@ -2158,13 +2288,16 @@
       <c r="M11" s="7">
         <v>3000</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N11" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="18.75" customHeight="1">
       <c r="A12" s="5">
         <v>55481</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
@@ -2199,13 +2332,16 @@
       <c r="M12" s="7">
         <v>22900</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N12" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="31.5" customHeight="1">
       <c r="A13" s="5">
         <v>55914</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C13" s="6">
         <v>1</v>
@@ -2240,13 +2376,16 @@
       <c r="M13" s="7">
         <v>25900</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N13" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="31.5" customHeight="1">
       <c r="A14" s="5">
         <v>56157</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C14" s="6">
         <v>1</v>
@@ -2281,13 +2420,16 @@
       <c r="M14" s="7">
         <v>22900</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N14" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="31.5" customHeight="1">
       <c r="A15" s="5">
         <v>56058</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C15" s="6">
         <v>1</v>
@@ -2322,13 +2464,16 @@
       <c r="M15" s="7">
         <v>22900</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N15" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="31.5" customHeight="1">
       <c r="A16" s="5">
         <v>55829</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C16" s="6">
         <v>1</v>
@@ -2363,13 +2508,16 @@
       <c r="M16" s="7">
         <v>22900</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N16" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="31.5" customHeight="1">
       <c r="A17" s="5">
         <v>55830</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C17" s="6">
         <v>1</v>
@@ -2404,13 +2552,16 @@
       <c r="M17" s="7">
         <v>22900</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N17" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="31.5" customHeight="1">
       <c r="A18" s="5">
         <v>55743</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C18" s="6">
         <v>1</v>
@@ -2445,13 +2596,16 @@
       <c r="M18" s="7">
         <v>4800</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N18" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="31.5" customHeight="1">
       <c r="A19" s="5">
         <v>55330</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C19" s="6">
         <v>1</v>
@@ -2486,13 +2640,16 @@
       <c r="M19" s="7">
         <v>18900</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N19" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="18.75" customHeight="1">
       <c r="A20" s="5">
         <v>55188</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C20" s="6">
         <v>11</v>
@@ -2527,13 +2684,16 @@
       <c r="M20" s="7">
         <v>38500</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N20" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="18.75" customHeight="1">
       <c r="A21" s="5">
         <v>56184</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C21" s="6">
         <v>1</v>
@@ -2568,13 +2728,16 @@
       <c r="M21" s="7">
         <v>118000</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N21" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="18.75" customHeight="1">
       <c r="A22" s="5">
         <v>55315</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C22" s="6">
         <v>67</v>
@@ -2609,13 +2772,16 @@
       <c r="M22" s="7">
         <v>100500</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N22" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="18.75" customHeight="1">
       <c r="A23" s="5">
         <v>53872</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C23" s="6">
         <v>1</v>
@@ -2650,13 +2816,16 @@
       <c r="M23" s="7">
         <v>11900</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N23" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="18.75" customHeight="1">
       <c r="A24" s="5">
         <v>54823</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C24" s="6">
         <v>1</v>
@@ -2691,13 +2860,16 @@
       <c r="M24" s="7">
         <v>6200</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N24" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="18.75" customHeight="1">
       <c r="A25" s="5">
         <v>54822</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C25" s="6">
         <v>4</v>
@@ -2732,13 +2904,16 @@
       <c r="M25" s="7">
         <v>16800</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N25" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="18.75" customHeight="1">
       <c r="A26" s="5">
         <v>55950</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C26" s="6">
         <v>5</v>
@@ -2773,13 +2948,16 @@
       <c r="M26" s="7">
         <v>29000</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N26" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="18.75" customHeight="1">
       <c r="A27" s="5">
         <v>54944</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C27" s="6">
         <v>1</v>
@@ -2814,13 +2992,16 @@
       <c r="M27" s="7">
         <v>57900</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N27" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="18.75" customHeight="1">
       <c r="A28" s="5">
         <v>54332</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C28" s="6">
         <v>0</v>
@@ -2855,13 +3036,16 @@
       <c r="M28" s="7">
         <v>25000</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N28" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="18.75" customHeight="1">
       <c r="A29" s="5">
         <v>55989</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C29" s="6">
         <v>3</v>
@@ -2896,13 +3080,16 @@
       <c r="M29" s="7">
         <v>274500</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N29" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="18.75" customHeight="1">
       <c r="A30" s="5">
         <v>54023</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C30" s="6">
         <v>1</v>
@@ -2937,13 +3124,16 @@
       <c r="M30" s="7">
         <v>23000</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N30" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="18.75" customHeight="1">
       <c r="A31" s="5">
         <v>55509</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C31" s="6">
         <v>1</v>
@@ -2978,13 +3168,16 @@
       <c r="M31" s="7">
         <v>91500</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N31" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="18.75" customHeight="1">
       <c r="A32" s="5">
         <v>56111</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C32" s="6">
         <v>1</v>
@@ -3019,13 +3212,16 @@
       <c r="M32" s="7">
         <v>51900</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N32" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="18.75" customHeight="1">
       <c r="A33" s="5">
         <v>55541</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C33" s="6">
         <v>1</v>
@@ -3060,13 +3256,16 @@
       <c r="M33" s="7">
         <v>26900</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N33" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="18.75" customHeight="1">
       <c r="A34" s="5">
         <v>55650</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C34" s="6">
         <v>1</v>
@@ -3101,13 +3300,16 @@
       <c r="M34" s="7">
         <v>25200</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N34" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="18.75" customHeight="1">
       <c r="A35" s="5">
         <v>55927</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C35" s="6">
         <v>2</v>
@@ -3142,13 +3344,16 @@
       <c r="M35" s="7">
         <v>17000</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N35" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="18.75" customHeight="1">
       <c r="A36" s="5">
         <v>55947</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C36" s="6">
         <v>1</v>
@@ -3183,13 +3388,16 @@
       <c r="M36" s="7">
         <v>15500</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N36" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="18.75" customHeight="1">
       <c r="A37" s="5">
         <v>56146</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C37" s="6">
         <v>3</v>
@@ -3224,13 +3432,16 @@
       <c r="M37" s="7">
         <v>155700</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N37" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="18.75" customHeight="1">
       <c r="A38" s="5">
         <v>54846</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C38" s="6">
         <v>1</v>
@@ -3265,13 +3476,16 @@
       <c r="M38" s="7">
         <v>4000</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N38" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="18.75" customHeight="1">
       <c r="A39" s="5">
         <v>54123</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C39" s="6">
         <v>2</v>
@@ -3306,13 +3520,16 @@
       <c r="M39" s="7">
         <v>63000</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N39" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="18.75" customHeight="1">
       <c r="A40" s="5">
         <v>55781</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C40" s="6">
         <v>2</v>
@@ -3347,13 +3564,16 @@
       <c r="M40" s="7">
         <v>31800</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N40" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="18.75" customHeight="1">
       <c r="A41" s="5">
         <v>54529</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C41" s="6">
         <v>0</v>
@@ -3388,13 +3608,16 @@
       <c r="M41" s="7">
         <v>1800</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N41" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="18.75" customHeight="1">
       <c r="A42" s="5">
         <v>54615</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C42" s="6">
         <v>10</v>
@@ -3429,13 +3652,16 @@
       <c r="M42" s="7">
         <v>46000</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N42" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="18.75" customHeight="1">
       <c r="A43" s="5">
         <v>55788</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C43" s="6">
         <v>5</v>
@@ -3470,13 +3696,16 @@
       <c r="M43" s="7">
         <v>6500</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N43" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="18.75" customHeight="1">
       <c r="A44" s="5">
         <v>55939</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C44" s="6">
         <v>9</v>
@@ -3511,13 +3740,16 @@
       <c r="M44" s="7">
         <v>11700</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N44" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="18.75" customHeight="1">
       <c r="A45" s="5">
         <v>53701</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C45" s="6">
         <v>1</v>
@@ -3552,13 +3784,16 @@
       <c r="M45" s="7">
         <v>3500</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N45" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="18.75" customHeight="1">
       <c r="A46" s="5">
         <v>55938</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C46" s="6">
         <v>19</v>
@@ -3593,13 +3828,16 @@
       <c r="M46" s="7">
         <v>24700</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N46" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="18.75" customHeight="1">
       <c r="A47" s="5">
         <v>54569</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C47" s="6">
         <v>10</v>
@@ -3634,13 +3872,16 @@
       <c r="M47" s="7">
         <v>46000</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N47" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="18.75" customHeight="1">
       <c r="A48" s="5">
         <v>54294</v>
       </c>
       <c r="B48" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C48" s="6">
         <v>1</v>
@@ -3675,13 +3916,16 @@
       <c r="M48" s="7">
         <v>6500</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N48" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="18.75" customHeight="1">
       <c r="A49" s="5">
         <v>54740</v>
       </c>
       <c r="B49" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C49" s="6">
         <v>1</v>
@@ -3716,13 +3960,16 @@
       <c r="M49" s="7">
         <v>18900</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N49" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="18.75" customHeight="1">
       <c r="A50" s="5">
         <v>55907</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C50" s="6">
         <v>2</v>
@@ -3757,13 +4004,16 @@
       <c r="M50" s="7">
         <v>27800</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N50" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="18.75" customHeight="1">
       <c r="A51" s="5">
         <v>55911</v>
       </c>
       <c r="B51" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C51" s="6">
         <v>1</v>
@@ -3798,13 +4048,16 @@
       <c r="M51" s="7">
         <v>13900</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N51" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="18.75" customHeight="1">
       <c r="A52" s="5">
         <v>55912</v>
       </c>
       <c r="B52" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C52" s="6">
         <v>2</v>
@@ -3839,13 +4092,16 @@
       <c r="M52" s="7">
         <v>27800</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N52" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="18.75" customHeight="1">
       <c r="A53" s="5">
         <v>55910</v>
       </c>
       <c r="B53" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C53" s="6">
         <v>1</v>
@@ -3880,13 +4136,16 @@
       <c r="M53" s="7">
         <v>16900</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N53" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="18.75" customHeight="1">
       <c r="A54" s="5">
         <v>55909</v>
       </c>
       <c r="B54" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C54" s="6">
         <v>2</v>
@@ -3921,13 +4180,16 @@
       <c r="M54" s="7">
         <v>33800</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N54" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="18.75" customHeight="1">
       <c r="A55" s="5">
         <v>55908</v>
       </c>
       <c r="B55" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C55" s="6">
         <v>2</v>
@@ -3962,13 +4224,16 @@
       <c r="M55" s="7">
         <v>33800</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N55" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="18.75" customHeight="1">
       <c r="A56" s="5">
         <v>54902</v>
       </c>
       <c r="B56" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C56" s="6">
         <v>4</v>
@@ -4003,13 +4268,16 @@
       <c r="M56" s="7">
         <v>316000</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N56" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="18.75" customHeight="1">
       <c r="A57" s="5">
         <v>54493</v>
       </c>
       <c r="B57" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C57" s="6">
         <v>1</v>
@@ -4044,13 +4312,16 @@
       <c r="M57" s="7">
         <v>6900</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N57" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="18.75" customHeight="1">
       <c r="A58" s="5">
         <v>54937</v>
       </c>
       <c r="B58" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C58" s="6">
         <v>3</v>
@@ -4085,13 +4356,16 @@
       <c r="M58" s="7">
         <v>19500</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N58" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="18.75" customHeight="1">
       <c r="A59" s="5">
         <v>53990</v>
       </c>
       <c r="B59" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C59" s="6">
         <v>1</v>
@@ -4126,13 +4400,16 @@
       <c r="M59" s="7">
         <v>47500</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N59" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="18.75" customHeight="1">
       <c r="A60" s="5">
         <v>55714</v>
       </c>
       <c r="B60" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C60" s="6">
         <v>1</v>
@@ -4167,13 +4444,16 @@
       <c r="M60" s="7">
         <v>55000</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N60" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="18.75" customHeight="1">
       <c r="A61" s="5">
         <v>55806</v>
       </c>
       <c r="B61" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C61" s="6">
         <v>8</v>
@@ -4208,13 +4488,16 @@
       <c r="M61" s="7">
         <v>78400</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N61" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="18.75" customHeight="1">
       <c r="A62" s="5">
         <v>56169</v>
       </c>
       <c r="B62" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C62" s="6">
         <v>1</v>
@@ -4249,13 +4532,16 @@
       <c r="M62" s="7">
         <v>2000</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N62" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="18.75" customHeight="1">
       <c r="A63" s="5">
         <v>55095</v>
       </c>
       <c r="B63" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C63" s="6">
         <v>2</v>
@@ -4290,13 +4576,16 @@
       <c r="M63" s="7">
         <v>15000</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N63" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="18.75" customHeight="1">
       <c r="A64" s="5">
         <v>54725</v>
       </c>
       <c r="B64" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C64" s="6">
         <v>7</v>
@@ -4331,13 +4620,16 @@
       <c r="M64" s="7">
         <v>97300</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N64" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="18.75" customHeight="1">
       <c r="A65" s="5">
         <v>54990</v>
       </c>
       <c r="B65" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C65" s="6">
         <v>1</v>
@@ -4372,13 +4664,16 @@
       <c r="M65" s="7">
         <v>126000</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N65" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="18.75" customHeight="1">
       <c r="A66" s="5">
         <v>55867</v>
       </c>
       <c r="B66" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C66" s="6">
         <v>2</v>
@@ -4413,13 +4708,16 @@
       <c r="M66" s="7">
         <v>65800</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N66" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="18.75" customHeight="1">
       <c r="A67" s="5">
         <v>55269</v>
       </c>
       <c r="B67" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C67" s="6">
         <v>2</v>
@@ -4454,13 +4752,16 @@
       <c r="M67" s="7">
         <v>39000</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N67" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68" s="8">
         <v>55797</v>
       </c>
       <c r="B68" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C68" s="2">
         <v>34</v>
@@ -4495,13 +4796,16 @@
       <c r="M68" s="9">
         <v>6800</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N68" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69" s="8">
         <v>55796</v>
       </c>
       <c r="B69" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C69" s="2">
         <v>36</v>
@@ -4536,13 +4840,16 @@
       <c r="M69" s="9">
         <v>3600</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N69" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
       <c r="A70" s="8">
         <v>55635</v>
       </c>
       <c r="B70" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C70" s="2">
         <v>954</v>
@@ -4577,13 +4884,16 @@
       <c r="M70" s="9">
         <v>190800</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N70" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
       <c r="A71" s="8">
         <v>55636</v>
       </c>
       <c r="B71" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C71" s="2">
         <v>693</v>
@@ -4618,13 +4928,16 @@
       <c r="M71" s="9">
         <v>69300</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N71" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
       <c r="A72" s="8">
         <v>54097</v>
       </c>
       <c r="B72" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C72" s="2">
         <v>2</v>
@@ -4659,13 +4972,16 @@
       <c r="M72" s="9">
         <v>51000</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N72" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
       <c r="A73" s="8">
         <v>56113</v>
       </c>
       <c r="B73" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C73" s="2">
         <v>15</v>
@@ -4700,13 +5016,16 @@
       <c r="M73" s="9">
         <v>69000</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N73" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
       <c r="A74" s="8">
         <v>55825</v>
       </c>
       <c r="B74" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C74" s="2">
         <v>1</v>
@@ -4741,13 +5060,16 @@
       <c r="M74" s="9">
         <v>30500</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N74" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
       <c r="A75" s="8">
         <v>54827</v>
       </c>
       <c r="B75" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C75" s="2">
         <v>1</v>
@@ -4782,13 +5104,16 @@
       <c r="M75" s="9">
         <v>5500</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N75" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
       <c r="A76" s="8">
         <v>55570</v>
       </c>
       <c r="B76" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C76" s="2">
         <v>1</v>
@@ -4823,13 +5148,16 @@
       <c r="M76" s="9">
         <v>70000</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N76" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
       <c r="A77" s="8">
         <v>55846</v>
       </c>
       <c r="B77" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C77" s="2">
         <v>3</v>
@@ -4864,13 +5192,16 @@
       <c r="M77" s="9">
         <v>22500</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N77" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
       <c r="A78" s="8">
         <v>55996</v>
       </c>
       <c r="B78" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C78" s="2">
         <v>3</v>
@@ -4905,13 +5236,16 @@
       <c r="M78" s="9">
         <v>40800</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N78" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
       <c r="A79" s="8">
         <v>53559</v>
       </c>
       <c r="B79" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C79" s="2">
         <v>18</v>
@@ -4946,13 +5280,16 @@
       <c r="M79" s="9">
         <v>54000</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N79" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
       <c r="A80" s="8">
         <v>55320</v>
       </c>
       <c r="B80" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C80" s="2">
         <v>11</v>
@@ -4987,13 +5324,16 @@
       <c r="M80" s="9">
         <v>27500</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N80" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
       <c r="A81" s="8">
         <v>55302</v>
       </c>
       <c r="B81" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C81" s="2">
         <v>2</v>
@@ -5028,13 +5368,16 @@
       <c r="M81" s="9">
         <v>22000</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N81" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
       <c r="A82" s="8">
         <v>55311</v>
       </c>
       <c r="B82" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C82" s="2">
         <v>1</v>
@@ -5069,13 +5412,16 @@
       <c r="M82" s="9">
         <v>19500</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N82" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
       <c r="A83" s="8">
         <v>55301</v>
       </c>
       <c r="B83" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="C83" s="2">
         <v>15</v>
@@ -5110,13 +5456,16 @@
       <c r="M83" s="9">
         <v>18000</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N83" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
       <c r="A84" s="8">
         <v>54231</v>
       </c>
       <c r="B84" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C84" s="2">
         <v>3</v>
@@ -5151,13 +5500,16 @@
       <c r="M84" s="9">
         <v>15600</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N84" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
       <c r="A85" s="8">
         <v>55941</v>
       </c>
       <c r="B85" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C85" s="2">
         <v>6</v>
@@ -5192,13 +5544,16 @@
       <c r="M85" s="9">
         <v>12000</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N85" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
       <c r="A86" s="8">
         <v>53042</v>
       </c>
       <c r="B86" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C86" s="2">
         <v>0</v>
@@ -5233,13 +5588,16 @@
       <c r="M86" s="9">
         <v>13400</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N86" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87" s="8">
         <v>55026</v>
       </c>
       <c r="B87" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C87" s="2">
         <v>1</v>
@@ -5274,13 +5632,16 @@
       <c r="M87" s="9">
         <v>12000</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N87" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
       <c r="A88" s="8">
         <v>55738</v>
       </c>
       <c r="B88" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C88" s="2">
         <v>1</v>
@@ -5315,13 +5676,16 @@
       <c r="M88" s="9">
         <v>9800</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N88" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
       <c r="A89" s="8">
         <v>54703</v>
       </c>
       <c r="B89" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C89" s="2">
         <v>1</v>
@@ -5356,13 +5720,16 @@
       <c r="M89" s="9">
         <v>10900</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N89" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
       <c r="A90" s="8">
         <v>55739</v>
       </c>
       <c r="B90" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C90" s="2">
         <v>1</v>
@@ -5397,13 +5764,16 @@
       <c r="M90" s="9">
         <v>9800</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N90" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
       <c r="A91" s="8">
         <v>56152</v>
       </c>
       <c r="B91" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="C91" s="2">
         <v>8</v>
@@ -5438,13 +5808,16 @@
       <c r="M91" s="9">
         <v>364900</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N91" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
       <c r="A92" s="8">
         <v>56100</v>
       </c>
       <c r="B92" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C92" s="2">
         <v>1</v>
@@ -5479,13 +5852,16 @@
       <c r="M92" s="9">
         <v>6500</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N92" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
       <c r="A93" s="8">
         <v>55149</v>
       </c>
       <c r="B93" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C93" s="2">
         <v>15</v>
@@ -5520,13 +5896,16 @@
       <c r="M93" s="9">
         <v>247500</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N93" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
       <c r="A94" s="8">
         <v>55118</v>
       </c>
       <c r="B94" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C94" s="2">
         <v>15</v>
@@ -5561,13 +5940,16 @@
       <c r="M94" s="9">
         <v>19500</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N94" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
       <c r="A95" s="8">
         <v>54269</v>
       </c>
       <c r="B95" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C95" s="2">
         <v>1</v>
@@ -5602,13 +5984,16 @@
       <c r="M95" s="9">
         <v>15600</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N95" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
       <c r="A96" s="8">
         <v>55255</v>
       </c>
       <c r="B96" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C96" s="2">
         <v>1</v>
@@ -5643,13 +6028,16 @@
       <c r="M96" s="9">
         <v>2900</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N96" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
       <c r="A97" s="8">
         <v>53703</v>
       </c>
       <c r="B97" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="C97" s="2">
         <v>3</v>
@@ -5684,13 +6072,16 @@
       <c r="M97" s="9">
         <v>25500</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N97" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
       <c r="A98" s="8">
         <v>56188</v>
       </c>
       <c r="B98" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="C98" s="2">
         <v>4</v>
@@ -5725,13 +6116,16 @@
       <c r="M98" s="9">
         <v>27600</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N98" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
       <c r="A99" s="8">
         <v>54129</v>
       </c>
       <c r="B99" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C99" s="2">
         <v>2</v>
@@ -5766,13 +6160,16 @@
       <c r="M99" s="9">
         <v>36000</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N99" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
       <c r="A100" s="8">
         <v>55430</v>
       </c>
       <c r="B100" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="C100" s="2">
         <v>4</v>
@@ -5807,13 +6204,16 @@
       <c r="M100" s="9">
         <v>543600</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N100" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
       <c r="A101" s="8">
         <v>55579</v>
       </c>
       <c r="B101" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="C101" s="2">
         <v>3</v>
@@ -5848,13 +6248,16 @@
       <c r="M101" s="9">
         <v>200700</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N101" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
       <c r="A102" s="8">
         <v>55373</v>
       </c>
       <c r="B102" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="C102" s="2">
         <v>2</v>
@@ -5889,13 +6292,16 @@
       <c r="M102" s="9">
         <v>71800</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N102" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
       <c r="A103" s="8">
         <v>54604</v>
       </c>
       <c r="B103" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C103" s="2">
         <v>1</v>
@@ -5930,13 +6336,16 @@
       <c r="M103" s="9">
         <v>3300</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N103" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
       <c r="A104" s="8">
         <v>54525</v>
       </c>
       <c r="B104" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="C104" s="2">
         <v>2</v>
@@ -5971,13 +6380,16 @@
       <c r="M104" s="9">
         <v>8000</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N104" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
       <c r="A105" s="8">
         <v>55120</v>
       </c>
       <c r="B105" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C105" s="2">
         <v>1</v>
@@ -6012,13 +6424,16 @@
       <c r="M105" s="9">
         <v>3300</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N105" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
       <c r="A106" s="8">
         <v>55760</v>
       </c>
       <c r="B106" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C106" s="2">
         <v>1</v>
@@ -6053,13 +6468,16 @@
       <c r="M106" s="9">
         <v>3800</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N106" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
       <c r="A107" s="8">
         <v>55267</v>
       </c>
       <c r="B107" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C107" s="2">
         <v>1</v>
@@ -6094,13 +6512,16 @@
       <c r="M107" s="9">
         <v>4000</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N107" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
       <c r="A108" s="8">
         <v>54632</v>
       </c>
       <c r="B108" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C108" s="2">
         <v>1</v>
@@ -6135,13 +6556,16 @@
       <c r="M108" s="9">
         <v>4000</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N108" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
       <c r="A109" s="8">
         <v>54350</v>
       </c>
       <c r="B109" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C109" s="2">
         <v>1</v>
@@ -6176,13 +6600,16 @@
       <c r="M109" s="9">
         <v>4000</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N109" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
       <c r="A110" s="8">
         <v>54008</v>
       </c>
       <c r="B110" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="C110" s="2">
         <v>2</v>
@@ -6217,13 +6644,16 @@
       <c r="M110" s="9">
         <v>7600</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N110" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
       <c r="A111" s="8">
         <v>54012</v>
       </c>
       <c r="B111" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="C111" s="2">
         <v>2</v>
@@ -6258,13 +6688,16 @@
       <c r="M111" s="9">
         <v>8000</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N111" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
       <c r="A112" s="8">
         <v>54523</v>
       </c>
       <c r="B112" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C112" s="2">
         <v>2</v>
@@ -6299,13 +6732,16 @@
       <c r="M112" s="9">
         <v>7600</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N112" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
       <c r="A113" s="8">
         <v>55268</v>
       </c>
       <c r="B113" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C113" s="2">
         <v>2</v>
@@ -6340,13 +6776,16 @@
       <c r="M113" s="9">
         <v>8000</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N113" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
       <c r="A114" s="8">
         <v>54526</v>
       </c>
       <c r="B114" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="C114" s="2">
         <v>2</v>
@@ -6381,13 +6820,16 @@
       <c r="M114" s="9">
         <v>7600</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N114" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
       <c r="A115" s="8">
         <v>54522</v>
       </c>
       <c r="B115" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C115" s="2">
         <v>1</v>
@@ -6422,13 +6864,16 @@
       <c r="M115" s="9">
         <v>3800</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N115" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
       <c r="A116" s="8">
         <v>53958</v>
       </c>
       <c r="B116" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="C116" s="2">
         <v>2</v>
@@ -6463,13 +6908,16 @@
       <c r="M116" s="9">
         <v>8000</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N116" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
       <c r="A117" s="8">
         <v>54355</v>
       </c>
       <c r="B117" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C117" s="2">
         <v>1</v>
@@ -6504,13 +6952,16 @@
       <c r="M117" s="9">
         <v>6500</v>
       </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N117" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
       <c r="A118" s="8">
         <v>56166</v>
       </c>
       <c r="B118" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="C118" s="2">
         <v>4</v>
@@ -6545,13 +6996,16 @@
       <c r="M118" s="9">
         <v>48000</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N118" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
       <c r="A119" s="8">
         <v>55821</v>
       </c>
       <c r="B119" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="C119" s="2">
         <v>3</v>
@@ -6586,13 +7040,16 @@
       <c r="M119" s="9">
         <v>146700</v>
       </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N119" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
       <c r="A120" s="8">
         <v>55745</v>
       </c>
       <c r="B120" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="C120" s="2">
         <v>2</v>
@@ -6627,13 +7084,16 @@
       <c r="M120" s="9">
         <v>105800</v>
       </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N120" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
       <c r="A121" s="8">
         <v>55004</v>
       </c>
       <c r="B121" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C121" s="2">
         <v>8</v>
@@ -6668,13 +7128,16 @@
       <c r="M121" s="9">
         <v>249200</v>
       </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N121" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
       <c r="A122" s="8">
         <v>54028</v>
       </c>
       <c r="B122" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C122" s="2">
         <v>2</v>
@@ -6709,13 +7172,16 @@
       <c r="M122" s="9">
         <v>49800</v>
       </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N122" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
       <c r="A123" s="8">
         <v>54705</v>
       </c>
       <c r="B123" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C123" s="2">
         <v>1</v>
@@ -6750,13 +7216,16 @@
       <c r="M123" s="9">
         <v>47900</v>
       </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N123" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
       <c r="A124" s="8">
         <v>55229</v>
       </c>
       <c r="B124" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="C124" s="2">
         <v>0</v>
@@ -6791,13 +7260,16 @@
       <c r="M124" s="9">
         <v>76500</v>
       </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N124" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
       <c r="A125" s="8">
         <v>56009</v>
       </c>
       <c r="B125" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="C125" s="2">
         <v>1</v>
@@ -6832,13 +7304,16 @@
       <c r="M125" s="9">
         <v>12000</v>
       </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N125" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
       <c r="A126" s="8">
         <v>55648</v>
       </c>
       <c r="B126" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="C126" s="2">
         <v>3</v>
@@ -6873,13 +7348,16 @@
       <c r="M126" s="9">
         <v>33000</v>
       </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N126" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
       <c r="A127" s="8">
         <v>54564</v>
       </c>
       <c r="B127" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="C127" s="2">
         <v>3</v>
@@ -6914,13 +7392,16 @@
       <c r="M127" s="9">
         <v>91500</v>
       </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N127" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
       <c r="A128" s="8">
         <v>56128</v>
       </c>
       <c r="B128" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="C128" s="2">
         <v>1</v>
@@ -6955,13 +7436,16 @@
       <c r="M128" s="9">
         <v>75000</v>
       </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N128" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14">
       <c r="A129" s="8">
         <v>55502</v>
       </c>
       <c r="B129" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="C129" s="2">
         <v>1</v>
@@ -6996,13 +7480,16 @@
       <c r="M129" s="9">
         <v>17100</v>
       </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N129" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14">
       <c r="A130" s="8">
         <v>55511</v>
       </c>
       <c r="B130" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C130" s="2">
         <v>1</v>
@@ -7037,13 +7524,16 @@
       <c r="M130" s="9">
         <v>54785.67</v>
       </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N130" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14">
       <c r="A131" s="8">
         <v>53938</v>
       </c>
       <c r="B131" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="C131" s="2">
         <v>9</v>
@@ -7078,13 +7568,16 @@
       <c r="M131" s="9">
         <v>90000</v>
       </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N131" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14">
       <c r="A132" s="8">
         <v>56065</v>
       </c>
       <c r="B132" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="C132" s="2">
         <v>2</v>
@@ -7119,13 +7612,16 @@
       <c r="M132" s="9">
         <v>28500</v>
       </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N132" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14">
       <c r="A133" s="8">
         <v>55705</v>
       </c>
       <c r="B133" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="C133" s="2">
         <v>0</v>
@@ -7160,13 +7656,16 @@
       <c r="M133" s="9">
         <v>28800</v>
       </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N133" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14">
       <c r="A134" s="8">
         <v>54840</v>
       </c>
       <c r="B134" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="C134" s="2">
         <v>1</v>
@@ -7201,13 +7700,16 @@
       <c r="M134" s="9">
         <v>3000</v>
       </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N134" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14">
       <c r="A135" s="8">
         <v>55672</v>
       </c>
       <c r="B135" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="C135" s="2">
         <v>3</v>
@@ -7242,13 +7744,16 @@
       <c r="M135" s="9">
         <v>267000</v>
       </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N135" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14">
       <c r="A136" s="8">
         <v>55591</v>
       </c>
       <c r="B136" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="C136" s="2">
         <v>0</v>
@@ -7283,13 +7788,16 @@
       <c r="M136" s="9">
         <v>72000</v>
       </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N136" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14">
       <c r="A137" s="8">
         <v>55976</v>
       </c>
       <c r="B137" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="C137" s="2">
         <v>1</v>
@@ -7324,13 +7832,16 @@
       <c r="M137" s="9">
         <v>52900</v>
       </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N137" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14">
       <c r="A138" s="8">
         <v>56072</v>
       </c>
       <c r="B138" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="C138" s="2">
         <v>7</v>
@@ -7365,13 +7876,16 @@
       <c r="M138" s="9">
         <v>17500</v>
       </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N138" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14">
       <c r="A139" s="8">
         <v>56182</v>
       </c>
       <c r="B139" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="C139" s="2">
         <v>2</v>
@@ -7406,13 +7920,16 @@
       <c r="M139" s="9">
         <v>60000</v>
       </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N139" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14">
       <c r="A140" s="8">
         <v>56183</v>
       </c>
       <c r="B140" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="C140" s="2">
         <v>1</v>
@@ -7447,13 +7964,16 @@
       <c r="M140" s="9">
         <v>30000</v>
       </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N140" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14">
       <c r="A141" s="8">
         <v>54892</v>
       </c>
       <c r="B141" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="C141" s="2">
         <v>1</v>
@@ -7488,13 +8008,16 @@
       <c r="M141" s="9">
         <v>55200</v>
       </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N141" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14">
       <c r="A142" s="8">
         <v>54591</v>
       </c>
       <c r="B142" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="C142" s="2">
         <v>0</v>
@@ -7529,13 +8052,16 @@
       <c r="M142" s="9">
         <v>97200</v>
       </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N142" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14">
       <c r="A143" s="8">
         <v>56051</v>
       </c>
       <c r="B143" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="C143" s="2">
         <v>1</v>
@@ -7570,13 +8096,16 @@
       <c r="M143" s="9">
         <v>3000</v>
       </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N143" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14">
       <c r="A144" s="8">
         <v>55611</v>
       </c>
       <c r="B144" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="C144" s="2">
         <v>0</v>
@@ -7611,13 +8140,16 @@
       <c r="M144" s="9">
         <v>7000</v>
       </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N144" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14">
       <c r="A145" s="8">
         <v>55513</v>
       </c>
       <c r="B145" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="C145" s="2">
         <v>0</v>
@@ -7652,13 +8184,16 @@
       <c r="M145" s="9">
         <v>11000</v>
       </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N145" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14">
       <c r="A146" s="8">
         <v>55514</v>
       </c>
       <c r="B146" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C146" s="2">
         <v>0</v>
@@ -7693,13 +8228,16 @@
       <c r="M146" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N146" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14">
       <c r="A147" s="8">
         <v>54501</v>
       </c>
       <c r="B147" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="C147" s="2">
         <v>0</v>
@@ -7734,13 +8272,16 @@
       <c r="M147" s="9">
         <v>52500</v>
       </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N147" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14">
       <c r="A148" s="8">
         <v>54602</v>
       </c>
       <c r="B148" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="C148" s="2">
         <v>0</v>
@@ -7775,13 +8316,16 @@
       <c r="M148" s="9">
         <v>1800</v>
       </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N148" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14">
       <c r="A149" s="8">
         <v>54601</v>
       </c>
       <c r="B149" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C149" s="2">
         <v>0</v>
@@ -7816,13 +8360,16 @@
       <c r="M149" s="9">
         <v>1800</v>
       </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N149" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14">
       <c r="A150" s="8">
         <v>56083</v>
       </c>
       <c r="B150" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="C150" s="2">
         <v>1</v>
@@ -7857,13 +8404,16 @@
       <c r="M150" s="9">
         <v>30000</v>
       </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N150" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14">
       <c r="A151" s="8">
         <v>56010</v>
       </c>
       <c r="B151" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="C151" s="2">
         <v>0</v>
@@ -7898,13 +8448,16 @@
       <c r="M151" s="9">
         <v>28800</v>
       </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N151" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14">
       <c r="A152" s="8">
         <v>54933</v>
       </c>
       <c r="B152" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="C152" s="2">
         <v>0</v>
@@ -7939,13 +8492,16 @@
       <c r="M152" s="9">
         <v>1200</v>
       </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N152" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14">
       <c r="A153" s="8">
         <v>56035</v>
       </c>
       <c r="B153" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="C153" s="2">
         <v>1</v>
@@ -7980,13 +8536,16 @@
       <c r="M153" s="9">
         <v>37500</v>
       </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N153" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14">
       <c r="A154" s="8">
         <v>55896</v>
       </c>
       <c r="B154" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="C154" s="2">
         <v>2</v>
@@ -8021,13 +8580,16 @@
       <c r="M154" s="9">
         <v>33000</v>
       </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N154" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14">
       <c r="A155" s="8">
         <v>55872</v>
       </c>
       <c r="B155" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="C155" s="2">
         <v>2</v>
@@ -8062,13 +8624,16 @@
       <c r="M155" s="9">
         <v>53000</v>
       </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N155" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14">
       <c r="A156" s="8">
         <v>54884</v>
       </c>
       <c r="B156" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="C156" s="2">
         <v>1</v>
@@ -8103,13 +8668,16 @@
       <c r="M156" s="9">
         <v>16500</v>
       </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N156" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14">
       <c r="A157" s="8">
         <v>56086</v>
       </c>
       <c r="B157" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="C157" s="2">
         <v>4</v>
@@ -8144,13 +8712,16 @@
       <c r="M157" s="9">
         <v>9200</v>
       </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N157" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14">
       <c r="A158" s="8">
         <v>55607</v>
       </c>
       <c r="B158" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="C158" s="2">
         <v>4</v>
@@ -8185,13 +8756,16 @@
       <c r="M158" s="9">
         <v>9200</v>
       </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N158" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14">
       <c r="A159" s="8">
         <v>55604</v>
       </c>
       <c r="B159" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="C159" s="2">
         <v>43</v>
@@ -8226,13 +8800,16 @@
       <c r="M159" s="9">
         <v>98900</v>
       </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N159" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14">
       <c r="A160" s="8">
         <v>55605</v>
       </c>
       <c r="B160" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="C160" s="2">
         <v>2</v>
@@ -8267,13 +8844,16 @@
       <c r="M160" s="9">
         <v>4600</v>
       </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N160" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14">
       <c r="A161" s="8">
         <v>55606</v>
       </c>
       <c r="B161" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="C161" s="2">
         <v>1</v>
@@ -8308,13 +8888,16 @@
       <c r="M161" s="9">
         <v>2300</v>
       </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N161" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14">
       <c r="A162" s="8">
         <v>54796</v>
       </c>
       <c r="B162" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="C162" s="2">
         <v>0</v>
@@ -8349,13 +8932,16 @@
       <c r="M162" s="9">
         <v>1400</v>
       </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N162" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14">
       <c r="A163" s="8">
         <v>56191</v>
       </c>
       <c r="B163" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="C163" s="2">
         <v>2</v>
@@ -8390,13 +8976,16 @@
       <c r="M163" s="9">
         <v>8000</v>
       </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N163" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14">
       <c r="A164" s="8">
         <v>56190</v>
       </c>
       <c r="B164" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="C164" s="2">
         <v>3</v>
@@ -8431,13 +9020,16 @@
       <c r="M164" s="9">
         <v>12000</v>
       </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N164" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14">
       <c r="A165" s="8">
         <v>56189</v>
       </c>
       <c r="B165" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="C165" s="2">
         <v>2</v>
@@ -8472,13 +9064,16 @@
       <c r="M165" s="9">
         <v>8000</v>
       </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N165" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14">
       <c r="A166" s="8">
         <v>56004</v>
       </c>
       <c r="B166" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="C166" s="2">
         <v>1</v>
@@ -8513,13 +9108,16 @@
       <c r="M166" s="9">
         <v>23500</v>
       </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N166" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14">
       <c r="A167" s="8">
         <v>56112</v>
       </c>
       <c r="B167" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="C167" s="2">
         <v>1</v>
@@ -8554,13 +9152,16 @@
       <c r="M167" s="9">
         <v>8500</v>
       </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N167" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14">
       <c r="A168" s="8">
         <v>55957</v>
       </c>
       <c r="B168" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="C168" s="2">
         <v>2</v>
@@ -8595,13 +9196,16 @@
       <c r="M168" s="9">
         <v>29800</v>
       </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N168" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14">
       <c r="A169" s="8">
         <v>55087</v>
       </c>
       <c r="B169" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="C169" s="2">
         <v>3</v>
@@ -8636,13 +9240,16 @@
       <c r="M169" s="9">
         <v>13500</v>
       </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N169" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14">
       <c r="A170" s="8">
         <v>55464</v>
       </c>
       <c r="B170" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="C170" s="2">
         <v>1</v>
@@ -8677,13 +9284,16 @@
       <c r="M170" s="9">
         <v>4500</v>
       </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N170" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14">
       <c r="A171" s="8">
         <v>55958</v>
       </c>
       <c r="B171" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="C171" s="2">
         <v>1</v>
@@ -8718,13 +9328,16 @@
       <c r="M171" s="9">
         <v>4500</v>
       </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N171" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14">
       <c r="A172" s="8">
         <v>54281</v>
       </c>
       <c r="B172" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="C172" s="2">
         <v>44</v>
@@ -8759,13 +9372,16 @@
       <c r="M172" s="9">
         <v>66000</v>
       </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N172" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14">
       <c r="A173" s="8">
         <v>55815</v>
       </c>
       <c r="B173" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="C173" s="2">
         <v>10</v>
@@ -8800,13 +9416,16 @@
       <c r="M173" s="9">
         <v>17000</v>
       </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N173" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14">
       <c r="A174" s="8">
         <v>55813</v>
       </c>
       <c r="B174" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="C174" s="2">
         <v>15</v>
@@ -8841,13 +9460,16 @@
       <c r="M174" s="9">
         <v>60000</v>
       </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N174" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14">
       <c r="A175" s="8">
         <v>55814</v>
       </c>
       <c r="B175" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="C175" s="2">
         <v>17</v>
@@ -8882,13 +9504,16 @@
       <c r="M175" s="9">
         <v>28900</v>
       </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N175" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14">
       <c r="A176" s="8">
         <v>53135</v>
       </c>
       <c r="B176" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="C176" s="2">
         <v>3</v>
@@ -8923,13 +9548,16 @@
       <c r="M176" s="9">
         <v>46500</v>
       </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N176" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14">
       <c r="A177" s="8">
         <v>55155</v>
       </c>
       <c r="B177" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="C177" s="2">
         <v>1</v>
@@ -8964,13 +9592,16 @@
       <c r="M177" s="9">
         <v>27900</v>
       </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N177" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14">
       <c r="A178" s="8">
         <v>54939</v>
       </c>
       <c r="B178" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="C178" s="2">
         <v>2</v>
@@ -9005,13 +9636,16 @@
       <c r="M178" s="9">
         <v>27800</v>
       </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N178" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14">
       <c r="A179" s="8">
         <v>55725</v>
       </c>
       <c r="B179" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="C179" s="2">
         <v>1</v>
@@ -9046,13 +9680,16 @@
       <c r="M179" s="9">
         <v>18900</v>
       </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N179" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14">
       <c r="A180" s="8">
         <v>53136</v>
       </c>
       <c r="B180" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="C180" s="2">
         <v>2</v>
@@ -9087,13 +9724,16 @@
       <c r="M180" s="9">
         <v>9200</v>
       </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N180" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14">
       <c r="A181" s="8">
         <v>55476</v>
       </c>
       <c r="B181" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="C181" s="2">
         <v>1</v>
@@ -9128,13 +9768,16 @@
       <c r="M181" s="9">
         <v>35000</v>
       </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N181" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14">
       <c r="A182" s="8">
         <v>54346</v>
       </c>
       <c r="B182" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="C182" s="2">
         <v>6</v>
@@ -9169,13 +9812,16 @@
       <c r="M182" s="9">
         <v>33000</v>
       </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N182" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14">
       <c r="A183" s="8">
         <v>54098</v>
       </c>
       <c r="B183" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="C183" s="2">
         <v>2</v>
@@ -9210,13 +9856,16 @@
       <c r="M183" s="9">
         <v>24000</v>
       </c>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N183" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14">
       <c r="A184" s="8">
         <v>55080</v>
       </c>
       <c r="B184" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="C184" s="2">
         <v>4</v>
@@ -9251,13 +9900,16 @@
       <c r="M184" s="9">
         <v>68000</v>
       </c>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N184" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14">
       <c r="A185" s="8">
         <v>54789</v>
       </c>
       <c r="B185" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="C185" s="2">
         <v>3</v>
@@ -9292,13 +9944,16 @@
       <c r="M185" s="9">
         <v>71700</v>
       </c>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N185" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14">
       <c r="A186" s="8">
         <v>53108</v>
       </c>
       <c r="B186" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="C186" s="2">
         <v>1</v>
@@ -9333,13 +9988,16 @@
       <c r="M186" s="9">
         <v>34500</v>
       </c>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N186" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14">
       <c r="A187" s="8">
         <v>54273</v>
       </c>
       <c r="B187" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="C187" s="2">
         <v>0</v>
@@ -9374,13 +10032,16 @@
       <c r="M187" s="9">
         <v>3300</v>
       </c>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N187" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14">
       <c r="A188" s="8">
         <v>54498</v>
       </c>
       <c r="B188" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="C188" s="2">
         <v>1</v>
@@ -9415,13 +10076,16 @@
       <c r="M188" s="9">
         <v>2500</v>
       </c>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N188" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14">
       <c r="A189" s="8">
         <v>55979</v>
       </c>
       <c r="B189" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="C189" s="2">
         <v>3</v>
@@ -9456,13 +10120,16 @@
       <c r="M189" s="9">
         <v>10500</v>
       </c>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N189" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14">
       <c r="A190" s="8">
         <v>55763</v>
       </c>
       <c r="B190" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="C190" s="2">
         <v>2</v>
@@ -9497,13 +10164,16 @@
       <c r="M190" s="9">
         <v>7000</v>
       </c>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N190" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14">
       <c r="A191" s="8">
         <v>55762</v>
       </c>
       <c r="B191" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="C191" s="2">
         <v>1</v>
@@ -9538,13 +10208,16 @@
       <c r="M191" s="9">
         <v>3500</v>
       </c>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N191" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14">
       <c r="A192" s="8">
         <v>54338</v>
       </c>
       <c r="B192" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="C192" s="2">
         <v>3</v>
@@ -9579,13 +10252,16 @@
       <c r="M192" s="9">
         <v>10500</v>
       </c>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N192" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14">
       <c r="A193" s="8">
         <v>54337</v>
       </c>
       <c r="B193" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="C193" s="2">
         <v>1</v>
@@ -9620,13 +10296,16 @@
       <c r="M193" s="9">
         <v>3900</v>
       </c>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N193" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14">
       <c r="A194" s="8">
         <v>54341</v>
       </c>
       <c r="B194" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="C194" s="2">
         <v>1</v>
@@ -9661,13 +10340,16 @@
       <c r="M194" s="9">
         <v>5000</v>
       </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N194" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14">
       <c r="A195" s="8">
         <v>54233</v>
       </c>
       <c r="B195" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="C195" s="2">
         <v>1</v>
@@ -9702,13 +10384,16 @@
       <c r="M195" s="9">
         <v>4500</v>
       </c>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N195" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14">
       <c r="A196" s="8">
         <v>54270</v>
       </c>
       <c r="B196" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="C196" s="2">
         <v>0</v>
@@ -9743,13 +10428,16 @@
       <c r="M196" s="9">
         <v>14000</v>
       </c>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N196" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14">
       <c r="A197" s="8">
         <v>56177</v>
       </c>
       <c r="B197" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="C197" s="2">
         <v>10</v>
@@ -9784,13 +10472,16 @@
       <c r="M197" s="9">
         <v>28000</v>
       </c>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N197" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14">
       <c r="A198" s="8">
         <v>55385</v>
       </c>
       <c r="B198" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="C198" s="2">
         <v>1</v>
@@ -9825,13 +10516,16 @@
       <c r="M198" s="9">
         <v>2387.88</v>
       </c>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N198" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14">
       <c r="A199" s="8">
         <v>54691</v>
       </c>
       <c r="B199" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="C199" s="2">
         <v>6</v>
@@ -9866,13 +10560,16 @@
       <c r="M199" s="9">
         <v>16800</v>
       </c>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N199" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14">
       <c r="A200" s="8">
         <v>55132</v>
       </c>
       <c r="B200" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="C200" s="2">
         <v>1</v>
@@ -9907,13 +10604,16 @@
       <c r="M200" s="9">
         <v>90500</v>
       </c>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N200" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14">
       <c r="A201" s="8">
         <v>55506</v>
       </c>
       <c r="B201" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="C201" s="2">
         <v>5</v>
@@ -9948,13 +10648,16 @@
       <c r="M201" s="9">
         <v>57500</v>
       </c>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N201" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14">
       <c r="A202" s="8">
         <v>55166</v>
       </c>
       <c r="B202" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="C202" s="2">
         <v>4</v>
@@ -9989,13 +10692,16 @@
       <c r="M202" s="9">
         <v>46000</v>
       </c>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N202" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14">
       <c r="A203" s="8">
         <v>56194</v>
       </c>
       <c r="B203" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="C203" s="2">
         <v>10</v>
@@ -10030,13 +10736,16 @@
       <c r="M203" s="9">
         <v>65000</v>
       </c>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N203" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14">
       <c r="A204" s="8">
         <v>54190</v>
       </c>
       <c r="B204" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="C204" s="2">
         <v>7</v>
@@ -10071,13 +10780,16 @@
       <c r="M204" s="9">
         <v>45500</v>
       </c>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N204" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14">
       <c r="A205" s="8">
         <v>54893</v>
       </c>
       <c r="B205" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="C205" s="2">
         <v>2</v>
@@ -10112,13 +10824,16 @@
       <c r="M205" s="9">
         <v>47800</v>
       </c>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N205" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14">
       <c r="A206" s="8">
         <v>54931</v>
       </c>
       <c r="B206" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="C206" s="2">
         <v>1</v>
@@ -10153,13 +10868,16 @@
       <c r="M206" s="9">
         <v>61000</v>
       </c>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N206" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14">
       <c r="A207" s="8">
         <v>54799</v>
       </c>
       <c r="B207" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="C207" s="2">
         <v>0</v>
@@ -10194,13 +10912,16 @@
       <c r="M207" s="9">
         <v>88200</v>
       </c>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N207" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14">
       <c r="A208" s="8">
         <v>55528</v>
       </c>
       <c r="B208" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="C208" s="2">
         <v>2</v>
@@ -10235,13 +10956,16 @@
       <c r="M208" s="9">
         <v>61800</v>
       </c>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N208" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14">
       <c r="A209" s="8">
         <v>53778</v>
       </c>
       <c r="B209" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="C209" s="2">
         <v>2</v>
@@ -10276,13 +11000,16 @@
       <c r="M209" s="9">
         <v>233800</v>
       </c>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N209" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14">
       <c r="A210" s="8">
         <v>55770</v>
       </c>
       <c r="B210" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="C210" s="2">
         <v>3</v>
@@ -10317,13 +11044,16 @@
       <c r="M210" s="9">
         <v>54000</v>
       </c>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N210" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14">
       <c r="A211" s="8">
         <v>55081</v>
       </c>
       <c r="B211" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="C211" s="2">
         <v>0</v>
@@ -10358,13 +11088,16 @@
       <c r="M211" s="9">
         <v>2900</v>
       </c>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N211" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14">
       <c r="A212" s="8">
         <v>56068</v>
       </c>
       <c r="B212" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="C212" s="2">
         <v>1</v>
@@ -10399,13 +11132,16 @@
       <c r="M212" s="9">
         <v>23500</v>
       </c>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N212" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14">
       <c r="A213" s="8">
         <v>55776</v>
       </c>
       <c r="B213" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="C213" s="2">
         <v>5</v>
@@ -10440,13 +11176,16 @@
       <c r="M213" s="9">
         <v>31500</v>
       </c>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N213" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14">
       <c r="A214" s="8">
         <v>56075</v>
       </c>
       <c r="B214" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C214" s="2">
         <v>2</v>
@@ -10481,13 +11220,16 @@
       <c r="M214" s="9">
         <v>37000</v>
       </c>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N214" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14">
       <c r="A215" s="8">
         <v>55490</v>
       </c>
       <c r="B215" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="C215" s="2">
         <v>1</v>
@@ -10522,13 +11264,16 @@
       <c r="M215" s="9">
         <v>6500</v>
       </c>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N215" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14">
       <c r="A216" s="8">
         <v>54423</v>
       </c>
       <c r="B216" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="C216" s="2">
         <v>1</v>
@@ -10563,13 +11308,16 @@
       <c r="M216" s="9">
         <v>12000</v>
       </c>
-    </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N216" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14">
       <c r="A217" s="8">
         <v>55661</v>
       </c>
       <c r="B217" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="C217" s="2">
         <v>11</v>
@@ -10604,13 +11352,16 @@
       <c r="M217" s="9">
         <v>82500</v>
       </c>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N217" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14">
       <c r="A218" s="8">
         <v>55261</v>
       </c>
       <c r="B218" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="C218" s="2">
         <v>0</v>
@@ -10645,13 +11396,16 @@
       <c r="M218" s="9">
         <v>51000</v>
       </c>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N218" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14">
       <c r="A219" s="8">
         <v>53956</v>
       </c>
       <c r="B219" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="C219" s="2">
         <v>1</v>
@@ -10686,13 +11440,16 @@
       <c r="M219" s="9">
         <v>20500</v>
       </c>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N219" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14">
       <c r="A220" s="8">
         <v>55527</v>
       </c>
       <c r="B220" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="C220" s="2">
         <v>0</v>
@@ -10727,13 +11484,16 @@
       <c r="M220" s="9">
         <v>36000</v>
       </c>
-    </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N220" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14">
       <c r="A221" s="8">
         <v>56002</v>
       </c>
       <c r="B221" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="C221" s="2">
         <v>1</v>
@@ -10768,13 +11528,16 @@
       <c r="M221" s="9">
         <v>31900</v>
       </c>
-    </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N221" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14">
       <c r="A222" s="8">
         <v>54489</v>
       </c>
       <c r="B222" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="C222" s="2">
         <v>1</v>
@@ -10809,13 +11572,16 @@
       <c r="M222" s="9">
         <v>40000</v>
       </c>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N222" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14">
       <c r="A223" s="8">
         <v>55836</v>
       </c>
       <c r="B223" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C223" s="2">
         <v>2</v>
@@ -10850,13 +11616,16 @@
       <c r="M223" s="9">
         <v>45800</v>
       </c>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N223" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14">
       <c r="A224" s="8">
         <v>56127</v>
       </c>
       <c r="B224" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="C224" s="2">
         <v>4</v>
@@ -10891,13 +11660,16 @@
       <c r="M224" s="9">
         <v>83600</v>
       </c>
-    </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N224" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14">
       <c r="A225" s="8">
         <v>55305</v>
       </c>
       <c r="B225" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="C225" s="2">
         <v>0</v>
@@ -10932,13 +11704,16 @@
       <c r="M225" s="9">
         <v>14000</v>
       </c>
-    </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N225" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14">
       <c r="A226" s="8">
         <v>54977</v>
       </c>
       <c r="B226" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="C226" s="2">
         <v>10</v>
@@ -10973,13 +11748,16 @@
       <c r="M226" s="9">
         <v>55000</v>
       </c>
-    </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N226" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14">
       <c r="A227" s="8">
         <v>54042</v>
       </c>
       <c r="B227" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="C227" s="2">
         <v>2</v>
@@ -11014,13 +11792,16 @@
       <c r="M227" s="9">
         <v>27000</v>
       </c>
-    </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N227" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14">
       <c r="A228" s="8">
         <v>54043</v>
       </c>
       <c r="B228" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="C228" s="2">
         <v>3</v>
@@ -11055,13 +11836,16 @@
       <c r="M228" s="9">
         <v>40500</v>
       </c>
-    </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N228" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14">
       <c r="A229" s="8">
         <v>53953</v>
       </c>
       <c r="B229" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="C229" s="2">
         <v>2</v>
@@ -11096,13 +11880,16 @@
       <c r="M229" s="9">
         <v>27000</v>
       </c>
-    </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N229" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14">
       <c r="A230" s="8">
         <v>54077</v>
       </c>
       <c r="B230" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="C230" s="2">
         <v>2</v>
@@ -11137,13 +11924,16 @@
       <c r="M230" s="9">
         <v>27000</v>
       </c>
-    </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N230" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14">
       <c r="A231" s="8">
         <v>54076</v>
       </c>
       <c r="B231" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="C231" s="2">
         <v>3</v>
@@ -11178,13 +11968,16 @@
       <c r="M231" s="9">
         <v>40500</v>
       </c>
-    </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N231" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14">
       <c r="A232" s="8">
         <v>54998</v>
       </c>
       <c r="B232" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="C232" s="2">
         <v>1</v>
@@ -11219,13 +12012,16 @@
       <c r="M232" s="9">
         <v>16500</v>
       </c>
-    </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N232" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14">
       <c r="A233" s="8">
         <v>55773</v>
       </c>
       <c r="B233" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="C233" s="2">
         <v>0</v>
@@ -11260,13 +12056,16 @@
       <c r="M233" s="9">
         <v>40000</v>
       </c>
-    </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N233" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14">
       <c r="A234" s="8">
         <v>55282</v>
       </c>
       <c r="B234" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="C234" s="2">
         <v>1</v>
@@ -11301,13 +12100,16 @@
       <c r="M234" s="9">
         <v>54000</v>
       </c>
-    </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N234" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14">
       <c r="A235" s="8">
         <v>55280</v>
       </c>
       <c r="B235" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="C235" s="2">
         <v>15</v>
@@ -11342,13 +12144,16 @@
       <c r="M235" s="9">
         <v>37500</v>
       </c>
-    </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N235" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14">
       <c r="A236" s="8">
         <v>55105</v>
       </c>
       <c r="B236" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="C236" s="2">
         <v>0</v>
@@ -11383,13 +12188,16 @@
       <c r="M236" s="9">
         <v>1000</v>
       </c>
-    </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N236" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14">
       <c r="A237" s="8">
         <v>53562</v>
       </c>
       <c r="B237" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="C237" s="2">
         <v>2</v>
@@ -11424,13 +12232,16 @@
       <c r="M237" s="9">
         <v>8000</v>
       </c>
-    </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N237" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14">
       <c r="A238" s="8">
         <v>54480</v>
       </c>
       <c r="B238" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="C238" s="2">
         <v>4</v>
@@ -11465,13 +12276,16 @@
       <c r="M238" s="9">
         <v>38000</v>
       </c>
-    </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N238" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14">
       <c r="A239" s="8">
         <v>55440</v>
       </c>
       <c r="B239" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="C239" s="2">
         <v>5</v>
@@ -11506,13 +12320,16 @@
       <c r="M239" s="9">
         <v>5000</v>
       </c>
-    </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N239" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14">
       <c r="A240" s="8">
         <v>55216</v>
       </c>
       <c r="B240" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="C240" s="2">
         <v>1</v>
@@ -11547,13 +12364,16 @@
       <c r="M240" s="9">
         <v>1000</v>
       </c>
-    </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N240" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14">
       <c r="A241" s="8">
         <v>55215</v>
       </c>
       <c r="B241" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="C241" s="2">
         <v>3</v>
@@ -11588,13 +12408,16 @@
       <c r="M241" s="9">
         <v>4500</v>
       </c>
-    </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N241" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14">
       <c r="A242" s="8">
         <v>53952</v>
       </c>
       <c r="B242" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="C242" s="2">
         <v>2</v>
@@ -11629,13 +12452,16 @@
       <c r="M242" s="9">
         <v>27000</v>
       </c>
-    </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N242" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14">
       <c r="A243" s="8">
         <v>55853</v>
       </c>
       <c r="B243" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="C243" s="2">
         <v>1</v>
@@ -11670,13 +12496,16 @@
       <c r="M243" s="9">
         <v>7500</v>
       </c>
-    </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N243" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14">
       <c r="A244" s="8">
         <v>55402</v>
       </c>
       <c r="B244" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="C244" s="2">
         <v>4</v>
@@ -11711,13 +12540,16 @@
       <c r="M244" s="9">
         <v>58000</v>
       </c>
-    </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N244" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14">
       <c r="A245" s="8">
         <v>54406</v>
       </c>
       <c r="B245" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="C245" s="2">
         <v>1</v>
@@ -11752,13 +12584,16 @@
       <c r="M245" s="9">
         <v>6500</v>
       </c>
-    </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N245" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14">
       <c r="A246" s="8">
         <v>53752</v>
       </c>
       <c r="B246" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="C246" s="2">
         <v>2</v>
@@ -11793,13 +12628,16 @@
       <c r="M246" s="9">
         <v>9000</v>
       </c>
-    </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N246" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14">
       <c r="A247" s="8">
         <v>55600</v>
       </c>
       <c r="B247" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="C247" s="2">
         <v>1</v>
@@ -11834,13 +12672,16 @@
       <c r="M247" s="9">
         <v>12900</v>
       </c>
-    </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N247" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14">
       <c r="A248" s="8">
         <v>54121</v>
       </c>
       <c r="B248" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="C248" s="2">
         <v>1</v>
@@ -11875,13 +12716,16 @@
       <c r="M248" s="9">
         <v>8500</v>
       </c>
-    </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N248" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14">
       <c r="A249" s="8">
         <v>54308</v>
       </c>
       <c r="B249" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="C249" s="2">
         <v>1</v>
@@ -11916,13 +12760,16 @@
       <c r="M249" s="9">
         <v>35500</v>
       </c>
-    </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N249" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14">
       <c r="A250" s="8">
         <v>54318</v>
       </c>
       <c r="B250" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="C250" s="2">
         <v>1</v>
@@ -11957,13 +12804,16 @@
       <c r="M250" s="9">
         <v>34000</v>
       </c>
-    </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N250" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14">
       <c r="A251" s="8">
         <v>56160</v>
       </c>
       <c r="B251" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="C251" s="2">
         <v>1</v>
@@ -11998,13 +12848,16 @@
       <c r="M251" s="9">
         <v>41900</v>
       </c>
-    </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N251" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14">
       <c r="A252" s="8">
         <v>56198</v>
       </c>
       <c r="B252" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="C252" s="2">
         <v>3</v>
@@ -12039,13 +12892,16 @@
       <c r="M252" s="9">
         <v>80700</v>
       </c>
-    </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N252" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14">
       <c r="A253" s="8">
         <v>55337</v>
       </c>
       <c r="B253" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="C253" s="2">
         <v>3</v>
@@ -12080,13 +12936,16 @@
       <c r="M253" s="9">
         <v>50700</v>
       </c>
-    </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N253" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14">
       <c r="A254" s="8">
         <v>55290</v>
       </c>
       <c r="B254" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="C254" s="2">
         <v>0</v>
@@ -12121,13 +12980,16 @@
       <c r="M254" s="9">
         <v>36000</v>
       </c>
-    </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N254" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14">
       <c r="A255" s="8">
         <v>56202</v>
       </c>
       <c r="B255" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="C255" s="2">
         <v>2</v>
@@ -12162,13 +13024,16 @@
       <c r="M255" s="9">
         <v>84000</v>
       </c>
-    </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N255" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14">
       <c r="A256" s="8">
         <v>55182</v>
       </c>
       <c r="B256" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="C256" s="2">
         <v>4</v>
@@ -12203,13 +13068,16 @@
       <c r="M256" s="9">
         <v>151600</v>
       </c>
-    </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N256" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14">
       <c r="A257" s="8">
         <v>55706</v>
       </c>
       <c r="B257" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="C257" s="2">
         <v>1</v>
@@ -12244,13 +13112,16 @@
       <c r="M257" s="9">
         <v>16900</v>
       </c>
-    </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N257" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14">
       <c r="A258" s="8">
         <v>55189</v>
       </c>
       <c r="B258" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="C258" s="2">
         <v>1</v>
@@ -12285,13 +13156,16 @@
       <c r="M258" s="9">
         <v>14500</v>
       </c>
-    </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N258" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14">
       <c r="A259" s="8">
         <v>55363</v>
       </c>
       <c r="B259" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="C259" s="2">
         <v>0</v>
@@ -12326,13 +13200,16 @@
       <c r="M259" s="9">
         <v>36000</v>
       </c>
-    </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N259" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14">
       <c r="A260" s="8">
         <v>56081</v>
       </c>
       <c r="B260" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="C260" s="2">
         <v>1</v>
@@ -12367,13 +13244,16 @@
       <c r="M260" s="9">
         <v>17500</v>
       </c>
-    </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N260" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14">
       <c r="A261" s="8">
         <v>53230</v>
       </c>
       <c r="B261" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="C261" s="2">
         <v>92</v>
@@ -12408,13 +13288,16 @@
       <c r="M261" s="9">
         <v>64400</v>
       </c>
-    </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N261" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14">
       <c r="A262" s="8">
         <v>54259</v>
       </c>
       <c r="B262" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="C262" s="2">
         <v>7</v>
@@ -12449,13 +13332,16 @@
       <c r="M262" s="9">
         <v>66500</v>
       </c>
-    </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N262" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14">
       <c r="A263" s="8">
         <v>56148</v>
       </c>
       <c r="B263" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="C263" s="2">
         <v>1</v>
@@ -12490,13 +13376,16 @@
       <c r="M263" s="9">
         <v>51900</v>
       </c>
-    </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N263" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14">
       <c r="A264" s="8">
         <v>55109</v>
       </c>
       <c r="B264" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="C264" s="2">
         <v>3</v>
@@ -12531,13 +13420,16 @@
       <c r="M264" s="9">
         <v>65700</v>
       </c>
-    </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N264" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14">
       <c r="A265" s="8">
         <v>55192</v>
       </c>
       <c r="B265" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="C265" s="2">
         <v>2</v>
@@ -12572,13 +13464,16 @@
       <c r="M265" s="9">
         <v>43800</v>
       </c>
-    </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N265" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14">
       <c r="A266" s="8">
         <v>54304</v>
       </c>
       <c r="B266" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="C266" s="2">
         <v>2</v>
@@ -12613,13 +13508,16 @@
       <c r="M266" s="9">
         <v>43800</v>
       </c>
-    </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N266" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14">
       <c r="A267" s="8">
         <v>54898</v>
       </c>
       <c r="B267" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="C267" s="2">
         <v>1</v>
@@ -12654,13 +13552,16 @@
       <c r="M267" s="9">
         <v>20500</v>
       </c>
-    </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N267" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14">
       <c r="A268" s="8">
         <v>54850</v>
       </c>
       <c r="B268" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="C268" s="2">
         <v>15</v>
@@ -12695,13 +13596,16 @@
       <c r="M268" s="9">
         <v>69000</v>
       </c>
-    </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N268" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14">
       <c r="A269" s="8">
         <v>54781</v>
       </c>
       <c r="B269" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="C269" s="2">
         <v>3</v>
@@ -12736,13 +13640,16 @@
       <c r="M269" s="9">
         <v>13800</v>
       </c>
-    </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N269" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14">
       <c r="A270" s="8">
         <v>54201</v>
       </c>
       <c r="B270" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="C270" s="2">
         <v>1</v>
@@ -12777,13 +13684,16 @@
       <c r="M270" s="9">
         <v>36900</v>
       </c>
-    </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N270" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14">
       <c r="A271" s="8">
         <v>55935</v>
       </c>
       <c r="B271" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="C271" s="2">
         <v>0</v>
@@ -12818,13 +13728,16 @@
       <c r="M271" s="9">
         <v>47000</v>
       </c>
-    </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N271" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14">
       <c r="A272" s="8">
         <v>55812</v>
       </c>
       <c r="B272" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="C272" s="2">
         <v>0</v>
@@ -12859,13 +13772,16 @@
       <c r="M272" s="9">
         <v>56000</v>
       </c>
-    </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N272" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14">
       <c r="A273" s="8">
         <v>55779</v>
       </c>
       <c r="B273" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="C273" s="2">
         <v>2</v>
@@ -12900,13 +13816,16 @@
       <c r="M273" s="9">
         <v>12000</v>
       </c>
-    </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N273" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14">
       <c r="A274" s="8">
         <v>55308</v>
       </c>
       <c r="B274" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="C274" s="2">
         <v>1</v>
@@ -12941,13 +13860,16 @@
       <c r="M274" s="9">
         <v>101000</v>
       </c>
-    </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N274" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="275" spans="1:14">
       <c r="A275" s="8">
         <v>55766</v>
       </c>
       <c r="B275" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="C275" s="2">
         <v>4</v>
@@ -12982,13 +13904,16 @@
       <c r="M275" s="9">
         <v>4800</v>
       </c>
-    </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N275" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14">
       <c r="A276" s="8">
         <v>56049</v>
       </c>
       <c r="B276" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="C276" s="2">
         <v>3</v>
@@ -13023,13 +13948,16 @@
       <c r="M276" s="9">
         <v>23700</v>
       </c>
-    </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N276" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="277" spans="1:14">
       <c r="A277" s="8">
         <v>56050</v>
       </c>
       <c r="B277" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="C277" s="2">
         <v>3</v>
@@ -13064,13 +13992,16 @@
       <c r="M277" s="9">
         <v>20700</v>
       </c>
-    </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N277" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="278" spans="1:14">
       <c r="A278" s="8">
         <v>55012</v>
       </c>
       <c r="B278" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="C278" s="2">
         <v>2</v>
@@ -13105,13 +14036,16 @@
       <c r="M278" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N278" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14">
       <c r="A279" s="8">
         <v>55504</v>
       </c>
       <c r="B279" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="C279" s="2">
         <v>2</v>
@@ -13146,13 +14080,16 @@
       <c r="M279" s="9">
         <v>41800</v>
       </c>
-    </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N279" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="280" spans="1:14">
       <c r="A280" s="8">
         <v>55995</v>
       </c>
       <c r="B280" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="C280" s="2">
         <v>1</v>
@@ -13187,13 +14124,16 @@
       <c r="M280" s="9">
         <v>83000</v>
       </c>
-    </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N280" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="281" spans="1:14">
       <c r="A281" s="8">
         <v>55639</v>
       </c>
       <c r="B281" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="C281" s="2">
         <v>19</v>
@@ -13228,13 +14168,16 @@
       <c r="M281" s="9">
         <v>28500</v>
       </c>
-    </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N281" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="282" spans="1:14">
       <c r="A282" s="8">
         <v>53974</v>
       </c>
       <c r="B282" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="C282" s="2">
         <v>2</v>
@@ -13269,13 +14212,16 @@
       <c r="M282" s="9">
         <v>9600</v>
       </c>
-    </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N282" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14">
       <c r="A283" s="8">
         <v>55732</v>
       </c>
       <c r="B283" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="C283" s="2">
         <v>1</v>
@@ -13310,13 +14256,16 @@
       <c r="M283" s="9">
         <v>22900</v>
       </c>
-    </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N283" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14">
       <c r="A284" s="8">
         <v>55733</v>
       </c>
       <c r="B284" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="C284" s="2">
         <v>1</v>
@@ -13351,13 +14300,16 @@
       <c r="M284" s="9">
         <v>23900</v>
       </c>
-    </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N284" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14">
       <c r="A285" s="8">
         <v>55734</v>
       </c>
       <c r="B285" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="C285" s="2">
         <v>1</v>
@@ -13392,13 +14344,16 @@
       <c r="M285" s="9">
         <v>22900</v>
       </c>
-    </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N285" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14">
       <c r="A286" s="8">
         <v>55737</v>
       </c>
       <c r="B286" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="C286" s="2">
         <v>0</v>
@@ -13433,13 +14388,16 @@
       <c r="M286" s="9">
         <v>13000</v>
       </c>
-    </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N286" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14">
       <c r="A287" s="8">
         <v>55558</v>
       </c>
       <c r="B287" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="C287" s="2">
         <v>1</v>
@@ -13474,13 +14432,16 @@
       <c r="M287" s="9">
         <v>24900</v>
       </c>
-    </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N287" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="288" spans="1:14">
       <c r="A288" s="8">
         <v>55638</v>
       </c>
       <c r="B288" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="C288" s="2">
         <v>14</v>
@@ -13515,13 +14476,16 @@
       <c r="M288" s="9">
         <v>21000</v>
       </c>
-    </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N288" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14">
       <c r="A289" s="8">
         <v>54922</v>
       </c>
       <c r="B289" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="C289" s="2">
         <v>0</v>
@@ -13556,13 +14520,16 @@
       <c r="M289" s="9">
         <v>1000</v>
       </c>
-    </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N289" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14">
       <c r="A290" s="8">
         <v>55902</v>
       </c>
       <c r="B290" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="C290" s="2">
         <v>10</v>
@@ -13597,13 +14564,16 @@
       <c r="M290" s="9">
         <v>12000</v>
       </c>
-    </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N290" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14">
       <c r="A291" s="8">
         <v>54968</v>
       </c>
       <c r="B291" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="C291" s="2">
         <v>1</v>
@@ -13638,13 +14608,16 @@
       <c r="M291" s="9">
         <v>17500</v>
       </c>
-    </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N291" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="292" spans="1:14">
       <c r="A292" s="8">
         <v>54330</v>
       </c>
       <c r="B292" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="C292" s="2">
         <v>0</v>
@@ -13679,13 +14652,16 @@
       <c r="M292" s="9">
         <v>2700</v>
       </c>
-    </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N292" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="293" spans="1:14">
       <c r="A293" s="8">
         <v>54072</v>
       </c>
       <c r="B293" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="C293" s="2">
         <v>9</v>
@@ -13720,13 +14696,16 @@
       <c r="M293" s="9">
         <v>387000</v>
       </c>
-    </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N293" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14">
       <c r="A294" s="8">
         <v>54838</v>
       </c>
       <c r="B294" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="C294" s="2">
         <v>1</v>
@@ -13761,13 +14740,16 @@
       <c r="M294" s="9">
         <v>16000</v>
       </c>
-    </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N294" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="295" spans="1:14">
       <c r="A295" s="8">
         <v>55258</v>
       </c>
       <c r="B295" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="C295" s="2">
         <v>0</v>
@@ -13802,13 +14784,16 @@
       <c r="M295" s="9">
         <v>57400</v>
       </c>
-    </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N295" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14">
       <c r="A296" s="8">
         <v>53161</v>
       </c>
       <c r="B296" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="C296" s="2">
         <v>3</v>
@@ -13843,13 +14828,16 @@
       <c r="M296" s="9">
         <v>68700</v>
       </c>
-    </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N296" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14">
       <c r="A297" s="8">
         <v>55716</v>
       </c>
       <c r="B297" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="C297" s="2">
         <v>4</v>
@@ -13884,13 +14872,16 @@
       <c r="M297" s="9">
         <v>55600</v>
       </c>
-    </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N297" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="298" spans="1:14">
       <c r="A298" s="8">
         <v>55313</v>
       </c>
       <c r="B298" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="C298" s="2">
         <v>7</v>
@@ -13925,13 +14916,16 @@
       <c r="M298" s="9">
         <v>9800</v>
       </c>
-    </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N298" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14">
       <c r="A299" s="8">
         <v>55312</v>
       </c>
       <c r="B299" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="C299" s="2">
         <v>2</v>
@@ -13966,13 +14960,16 @@
       <c r="M299" s="9">
         <v>46000</v>
       </c>
-    </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N299" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14">
       <c r="A300" s="8">
         <v>56186</v>
       </c>
       <c r="B300" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="C300" s="2">
         <v>72</v>
@@ -14007,13 +15004,16 @@
       <c r="M300" s="9">
         <v>79200</v>
       </c>
-    </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N300" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14">
       <c r="A301" s="8">
         <v>54783</v>
       </c>
       <c r="B301" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="C301" s="2">
         <v>1</v>
@@ -14048,13 +15048,16 @@
       <c r="M301" s="9">
         <v>12000</v>
       </c>
-    </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N301" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="302" spans="1:14">
       <c r="A302" s="8">
         <v>54387</v>
       </c>
       <c r="B302" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="C302" s="2">
         <v>2</v>
@@ -14089,13 +15092,16 @@
       <c r="M302" s="9">
         <v>67800</v>
       </c>
-    </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N302" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="303" spans="1:14">
       <c r="A303" s="8">
         <v>54621</v>
       </c>
       <c r="B303" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="C303" s="2">
         <v>1</v>
@@ -14130,13 +15136,16 @@
       <c r="M303" s="9">
         <v>90600</v>
       </c>
-    </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N303" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="304" spans="1:14">
       <c r="A304" s="8">
         <v>54835</v>
       </c>
       <c r="B304" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="C304" s="2">
         <v>1</v>
@@ -14171,13 +15180,16 @@
       <c r="M304" s="9">
         <v>30500</v>
       </c>
-    </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N304" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="305" spans="1:14">
       <c r="A305" s="8">
         <v>55253</v>
       </c>
       <c r="B305" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="C305" s="2">
         <v>3</v>
@@ -14212,13 +15224,16 @@
       <c r="M305" s="9">
         <v>58500</v>
       </c>
-    </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N305" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="306" spans="1:14">
       <c r="A306" s="8">
         <v>55101</v>
       </c>
       <c r="B306" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="C306" s="2">
         <v>5</v>
@@ -14253,13 +15268,16 @@
       <c r="M306" s="9">
         <v>49500</v>
       </c>
-    </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N306" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="307" spans="1:14">
       <c r="A307" s="8">
         <v>55395</v>
       </c>
       <c r="B307" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="C307" s="2">
         <v>1</v>
@@ -14294,13 +15312,16 @@
       <c r="M307" s="9">
         <v>41500</v>
       </c>
-    </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N307" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="308" spans="1:14">
       <c r="A308" s="8">
         <v>54883</v>
       </c>
       <c r="B308" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="C308" s="2">
         <v>1</v>
@@ -14335,13 +15356,16 @@
       <c r="M308" s="9">
         <v>4000</v>
       </c>
-    </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N308" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="309" spans="1:14">
       <c r="A309" s="8">
         <v>54312</v>
       </c>
       <c r="B309" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="C309" s="2">
         <v>1</v>
@@ -14376,13 +15400,16 @@
       <c r="M309" s="9">
         <v>30000</v>
       </c>
-    </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N309" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="310" spans="1:14">
       <c r="A310" s="8">
         <v>54026</v>
       </c>
       <c r="B310" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="C310" s="2">
         <v>0</v>
@@ -14417,13 +15444,16 @@
       <c r="M310" s="9">
         <v>16800</v>
       </c>
-    </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N310" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="311" spans="1:14">
       <c r="A311" s="8">
         <v>55865</v>
       </c>
       <c r="B311" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="C311" s="2">
         <v>7</v>
@@ -14458,13 +15488,16 @@
       <c r="M311" s="9">
         <v>9100</v>
       </c>
-    </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N311" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="312" spans="1:14">
       <c r="A312" s="8">
         <v>55077</v>
       </c>
       <c r="B312" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="C312" s="2">
         <v>0</v>
@@ -14499,13 +15532,16 @@
       <c r="M312" s="9">
         <v>3000</v>
       </c>
-    </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N312" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="313" spans="1:14">
       <c r="A313" s="8">
         <v>54851</v>
       </c>
       <c r="B313" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="C313" s="2">
         <v>2</v>
@@ -14540,13 +15576,16 @@
       <c r="M313" s="9">
         <v>105800</v>
       </c>
-    </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N313" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="314" spans="1:14">
       <c r="A314" s="8">
         <v>55634</v>
       </c>
       <c r="B314" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="C314" s="2">
         <v>3</v>
@@ -14581,13 +15620,16 @@
       <c r="M314" s="9">
         <v>43500</v>
       </c>
-    </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N314" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="315" spans="1:14">
       <c r="A315" s="8">
         <v>54229</v>
       </c>
       <c r="B315" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="C315" s="2">
         <v>3</v>
@@ -14622,13 +15664,16 @@
       <c r="M315" s="9">
         <v>28500</v>
       </c>
-    </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N315" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="316" spans="1:14">
       <c r="A316" s="8">
         <v>54629</v>
       </c>
       <c r="B316" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="C316" s="2">
         <v>2</v>
@@ -14663,13 +15708,16 @@
       <c r="M316" s="9">
         <v>7000</v>
       </c>
-    </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N316" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="317" spans="1:14">
       <c r="A317" s="8">
         <v>55793</v>
       </c>
       <c r="B317" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="C317" s="2">
         <v>2</v>
@@ -14704,13 +15752,16 @@
       <c r="M317" s="9">
         <v>190500</v>
       </c>
-    </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N317" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="318" spans="1:14">
       <c r="A318" s="8">
         <v>54219</v>
       </c>
       <c r="B318" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="C318" s="2">
         <v>5</v>
@@ -14745,13 +15796,16 @@
       <c r="M318" s="9">
         <v>87500</v>
       </c>
-    </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N318" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="319" spans="1:14">
       <c r="A319" s="8">
         <v>54539</v>
       </c>
       <c r="B319" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="C319" s="2">
         <v>1</v>
@@ -14786,13 +15840,16 @@
       <c r="M319" s="9">
         <v>4500</v>
       </c>
-    </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N319" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="320" spans="1:14">
       <c r="A320" s="8">
         <v>55731</v>
       </c>
       <c r="B320" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="C320" s="2">
         <v>6</v>
@@ -14827,13 +15884,16 @@
       <c r="M320" s="9">
         <v>24000</v>
       </c>
-    </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N320" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="321" spans="1:14">
       <c r="A321" s="8">
         <v>50390</v>
       </c>
       <c r="B321" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="C321" s="2">
         <v>0</v>
@@ -14868,13 +15928,16 @@
       <c r="M321" s="9">
         <v>44800</v>
       </c>
-    </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N321" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="322" spans="1:14">
       <c r="A322" s="8">
         <v>50260</v>
       </c>
       <c r="B322" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="C322" s="2">
         <v>2</v>
@@ -14909,13 +15972,16 @@
       <c r="M322" s="9">
         <v>56000</v>
       </c>
-    </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N322" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="323" spans="1:14">
       <c r="A323" s="8">
         <v>39469</v>
       </c>
       <c r="B323" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="C323" s="2">
         <v>2</v>
@@ -14950,13 +16016,16 @@
       <c r="M323" s="9">
         <v>35800</v>
       </c>
-    </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N323" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="324" spans="1:14">
       <c r="A324" s="8">
         <v>45433</v>
       </c>
       <c r="B324" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="C324" s="2">
         <v>4</v>
@@ -14991,13 +16060,16 @@
       <c r="M324" s="9">
         <v>67600</v>
       </c>
-    </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N324" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="325" spans="1:14">
       <c r="A325" s="8">
         <v>6976</v>
       </c>
       <c r="B325" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="C325" s="2">
         <v>4</v>
@@ -15032,13 +16104,16 @@
       <c r="M325" s="9">
         <v>138000</v>
       </c>
-    </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N325" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="326" spans="1:14">
       <c r="A326" s="8">
         <v>49384</v>
       </c>
       <c r="B326" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="C326" s="2">
         <v>9</v>
@@ -15073,13 +16148,16 @@
       <c r="M326" s="9">
         <v>499000</v>
       </c>
-    </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N326" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="327" spans="1:14">
       <c r="A327" s="8">
         <v>46562</v>
       </c>
       <c r="B327" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="C327" s="2">
         <v>5</v>
@@ -15114,13 +16192,16 @@
       <c r="M327" s="9">
         <v>42500</v>
       </c>
-    </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N327" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="328" spans="1:14">
       <c r="A328" s="8">
         <v>38019</v>
       </c>
       <c r="B328" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="C328" s="2">
         <v>2</v>
@@ -15155,13 +16236,16 @@
       <c r="M328" s="9">
         <v>33800</v>
       </c>
-    </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N328" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="329" spans="1:14">
       <c r="A329" s="8">
         <v>43494</v>
       </c>
       <c r="B329" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="C329" s="2">
         <v>1</v>
@@ -15196,13 +16280,16 @@
       <c r="M329" s="9">
         <v>69500</v>
       </c>
-    </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N329" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="330" spans="1:14">
       <c r="A330" s="8">
         <v>49337</v>
       </c>
       <c r="B330" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="C330" s="2">
         <v>1</v>
@@ -15237,13 +16324,16 @@
       <c r="M330" s="9">
         <v>2800</v>
       </c>
-    </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N330" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="331" spans="1:14">
       <c r="A331" s="8">
         <v>39013</v>
       </c>
       <c r="B331" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="C331" s="2">
         <v>1</v>
@@ -15278,13 +16368,16 @@
       <c r="M331" s="9">
         <v>4000</v>
       </c>
-    </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N331" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="332" spans="1:14">
       <c r="A332" s="8">
         <v>23536</v>
       </c>
       <c r="B332" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="C332" s="2">
         <v>1</v>
@@ -15319,13 +16412,16 @@
       <c r="M332" s="9">
         <v>29500</v>
       </c>
-    </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N332" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="333" spans="1:14">
       <c r="A333" s="8">
         <v>34684</v>
       </c>
       <c r="B333" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C333" s="2">
         <v>0</v>
@@ -15360,13 +16456,16 @@
       <c r="M333" s="9">
         <v>6000</v>
       </c>
-    </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N333" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="334" spans="1:14">
       <c r="A334" s="8">
         <v>35485</v>
       </c>
       <c r="B334" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="C334" s="2">
         <v>5</v>
@@ -15401,13 +16500,16 @@
       <c r="M334" s="9">
         <v>107500</v>
       </c>
-    </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N334" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="335" spans="1:14">
       <c r="A335" s="8">
         <v>52067</v>
       </c>
       <c r="B335" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="C335" s="2">
         <v>1</v>
@@ -15442,13 +16544,16 @@
       <c r="M335" s="9">
         <v>3000</v>
       </c>
-    </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N335" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="336" spans="1:14">
       <c r="A336" s="8">
         <v>46370</v>
       </c>
       <c r="B336" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="C336" s="2">
         <v>5</v>
@@ -15483,13 +16588,16 @@
       <c r="M336" s="9">
         <v>97500</v>
       </c>
-    </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N336" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="337" spans="1:14">
       <c r="A337" s="8">
         <v>36096</v>
       </c>
       <c r="B337" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="C337" s="2">
         <v>1</v>
@@ -15524,13 +16632,16 @@
       <c r="M337" s="9">
         <v>2700</v>
       </c>
-    </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N337" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="338" spans="1:14">
       <c r="A338" s="8">
         <v>36955</v>
       </c>
       <c r="B338" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="C338" s="2">
         <v>1</v>
@@ -15565,13 +16676,16 @@
       <c r="M338" s="9">
         <v>24900</v>
       </c>
-    </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N338" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="339" spans="1:14">
       <c r="A339" s="8">
         <v>49903</v>
       </c>
       <c r="B339" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="C339" s="2">
         <v>1</v>
@@ -15606,13 +16720,16 @@
       <c r="M339" s="9">
         <v>16900</v>
       </c>
-    </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N339" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="340" spans="1:14">
       <c r="A340" s="8">
         <v>51746</v>
       </c>
       <c r="B340" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="C340" s="2">
         <v>0</v>
@@ -15647,13 +16764,16 @@
       <c r="M340" s="9">
         <v>6000</v>
       </c>
-    </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N340" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="341" spans="1:14">
       <c r="A341" s="8">
         <v>47603</v>
       </c>
       <c r="B341" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="C341" s="2">
         <v>4</v>
@@ -15688,13 +16808,16 @@
       <c r="M341" s="9">
         <v>35600</v>
       </c>
-    </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N341" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="342" spans="1:14">
       <c r="A342" s="8">
         <v>53269</v>
       </c>
       <c r="B342" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="C342" s="2">
         <v>3</v>
@@ -15729,13 +16852,16 @@
       <c r="M342" s="9">
         <v>56700</v>
       </c>
-    </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N342" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="343" spans="1:14">
       <c r="A343" s="8">
         <v>52022</v>
       </c>
       <c r="B343" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="C343" s="2">
         <v>1</v>
@@ -15770,13 +16896,16 @@
       <c r="M343" s="9">
         <v>20000</v>
       </c>
-    </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N343" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="344" spans="1:14">
       <c r="A344" s="8">
         <v>46790</v>
       </c>
       <c r="B344" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="C344" s="2">
         <v>2</v>
@@ -15811,13 +16940,16 @@
       <c r="M344" s="9">
         <v>5000</v>
       </c>
-    </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N344" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="345" spans="1:14">
       <c r="A345" s="8">
         <v>53270</v>
       </c>
       <c r="B345" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="C345" s="2">
         <v>5</v>
@@ -15852,13 +16984,16 @@
       <c r="M345" s="9">
         <v>79500</v>
       </c>
-    </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N345" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="346" spans="1:14">
       <c r="A346" s="8">
         <v>48917</v>
       </c>
       <c r="B346" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="C346" s="2">
         <v>16</v>
@@ -15893,13 +17028,16 @@
       <c r="M346" s="9">
         <v>36800</v>
       </c>
-    </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N346" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="347" spans="1:14">
       <c r="A347" s="8">
         <v>35692</v>
       </c>
       <c r="B347" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="C347" s="2">
         <v>1</v>
@@ -15934,13 +17072,16 @@
       <c r="M347" s="9">
         <v>6800</v>
       </c>
-    </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N347" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="348" spans="1:14">
       <c r="A348" s="8">
         <v>35691</v>
       </c>
       <c r="B348" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="C348" s="2">
         <v>1</v>
@@ -15975,13 +17116,16 @@
       <c r="M348" s="9">
         <v>3800</v>
       </c>
-    </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N348" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="349" spans="1:14">
       <c r="A349" s="8">
         <v>34706</v>
       </c>
       <c r="B349" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="C349" s="2">
         <v>1</v>
@@ -16016,13 +17160,16 @@
       <c r="M349" s="9">
         <v>144000</v>
       </c>
-    </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N349" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="350" spans="1:14">
       <c r="A350" s="8">
         <v>40541</v>
       </c>
       <c r="B350" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="C350" s="2">
         <v>2</v>
@@ -16057,13 +17204,16 @@
       <c r="M350" s="9">
         <v>59000</v>
       </c>
-    </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N350" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="351" spans="1:14">
       <c r="A351" s="8">
         <v>46715</v>
       </c>
       <c r="B351" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="C351" s="2">
         <v>0</v>
@@ -16098,13 +17248,16 @@
       <c r="M351" s="9">
         <v>5000</v>
       </c>
-    </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N351" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="352" spans="1:14">
       <c r="A352" s="8">
         <v>53708</v>
       </c>
       <c r="B352" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="C352" s="2">
         <v>4</v>
@@ -16139,13 +17292,16 @@
       <c r="M352" s="9">
         <v>29200</v>
       </c>
-    </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N352" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="353" spans="1:14">
       <c r="A353" s="8">
         <v>51737</v>
       </c>
       <c r="B353" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="C353" s="2">
         <v>3</v>
@@ -16180,13 +17336,16 @@
       <c r="M353" s="9">
         <v>31500</v>
       </c>
-    </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N353" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="354" spans="1:14">
       <c r="A354" s="8">
         <v>49239</v>
       </c>
       <c r="B354" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="C354" s="2">
         <v>2</v>
@@ -16221,13 +17380,16 @@
       <c r="M354" s="9">
         <v>25000</v>
       </c>
-    </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N354" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="355" spans="1:14">
       <c r="A355" s="8">
         <v>31688</v>
       </c>
       <c r="B355" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="C355" s="2">
         <v>3</v>
@@ -16262,13 +17424,16 @@
       <c r="M355" s="9">
         <v>133500</v>
       </c>
-    </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N355" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="356" spans="1:14">
       <c r="A356" s="8">
         <v>47593</v>
       </c>
       <c r="B356" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="C356" s="2">
         <v>36</v>
@@ -16303,13 +17468,16 @@
       <c r="M356" s="9">
         <v>247600</v>
       </c>
-    </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N356" s="11" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="357" spans="1:14">
       <c r="A357" s="8">
         <v>51843</v>
       </c>
       <c r="B357" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="C357" s="2">
         <v>3</v>
@@ -16344,13 +17512,16 @@
       <c r="M357" s="9">
         <v>19500</v>
       </c>
-    </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N357" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="358" spans="1:14">
       <c r="A358" s="8">
         <v>39262</v>
       </c>
       <c r="B358" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="C358" s="2">
         <v>1</v>
@@ -16385,13 +17556,16 @@
       <c r="M358" s="9">
         <v>22900</v>
       </c>
-    </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N358" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="359" spans="1:14">
       <c r="A359" s="8">
         <v>39874</v>
       </c>
       <c r="B359" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="C359" s="2">
         <v>1</v>
@@ -16426,13 +17600,16 @@
       <c r="M359" s="9">
         <v>9000</v>
       </c>
-    </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N359" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="360" spans="1:14">
       <c r="A360" s="8">
         <v>53381</v>
       </c>
       <c r="B360" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="C360" s="2">
         <v>2</v>
@@ -16467,13 +17644,16 @@
       <c r="M360" s="9">
         <v>45800</v>
       </c>
-    </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N360" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="361" spans="1:14">
       <c r="A361" s="8">
         <v>22323</v>
       </c>
       <c r="B361" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="C361" s="2">
         <v>7</v>
@@ -16508,13 +17688,16 @@
       <c r="M361" s="9">
         <v>48300</v>
       </c>
-    </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N361" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="362" spans="1:14">
       <c r="A362" s="8">
         <v>36684</v>
       </c>
       <c r="B362" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="C362" s="2">
         <v>2</v>
@@ -16549,13 +17732,16 @@
       <c r="M362" s="9">
         <v>41000</v>
       </c>
-    </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N362" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="363" spans="1:14">
       <c r="A363" s="8">
         <v>41506</v>
       </c>
       <c r="B363" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="C363" s="2">
         <v>7</v>
@@ -16590,13 +17776,16 @@
       <c r="M363" s="9">
         <v>32200</v>
       </c>
-    </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N363" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="364" spans="1:14">
       <c r="A364" s="8">
         <v>56195</v>
       </c>
       <c r="B364" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="C364" s="2">
         <v>4</v>
@@ -16631,13 +17820,16 @@
       <c r="M364" s="9">
         <v>12000</v>
       </c>
-    </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N364" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="365" spans="1:14">
       <c r="A365" s="8">
         <v>53242</v>
       </c>
       <c r="B365" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="C365" s="2">
         <v>0</v>
@@ -16672,13 +17864,16 @@
       <c r="M365" s="9">
         <v>1000</v>
       </c>
-    </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N365" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="366" spans="1:14">
       <c r="A366" s="8">
         <v>53028</v>
       </c>
       <c r="B366" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="C366" s="2">
         <v>2</v>
@@ -16713,13 +17908,16 @@
       <c r="M366" s="9">
         <v>8400</v>
       </c>
-    </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N366" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="367" spans="1:14">
       <c r="A367" s="8">
         <v>53237</v>
       </c>
       <c r="B367" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="C367" s="2">
         <v>0</v>
@@ -16754,13 +17952,16 @@
       <c r="M367" s="9">
         <v>16900</v>
       </c>
-    </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N367" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="368" spans="1:14">
       <c r="A368" s="8">
         <v>53792</v>
       </c>
       <c r="B368" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="C368" s="2">
         <v>1</v>
@@ -16795,13 +17996,16 @@
       <c r="M368" s="9">
         <v>24500</v>
       </c>
-    </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N368" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="369" spans="1:14">
       <c r="A369" s="8">
         <v>55729</v>
       </c>
       <c r="B369" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="C369" s="2">
         <v>1</v>
@@ -16836,13 +18040,16 @@
       <c r="M369" s="9">
         <v>22500</v>
       </c>
-    </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N369" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="370" spans="1:14">
       <c r="A370" s="8">
         <v>33943</v>
       </c>
       <c r="B370" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="C370" s="2">
         <v>1</v>
@@ -16877,13 +18084,16 @@
       <c r="M370" s="9">
         <v>15900</v>
       </c>
-    </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N370" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="371" spans="1:14">
       <c r="A371" s="8">
         <v>32336</v>
       </c>
       <c r="B371" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="C371" s="2">
         <v>2</v>
@@ -16918,13 +18128,16 @@
       <c r="M371" s="9">
         <v>49800</v>
       </c>
-    </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N371" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="372" spans="1:14">
       <c r="A372" s="8">
         <v>55378</v>
       </c>
       <c r="B372" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="C372" s="2">
         <v>1</v>
@@ -16959,13 +18172,16 @@
       <c r="M372" s="9">
         <v>33900</v>
       </c>
-    </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N372" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="373" spans="1:14">
       <c r="A373" s="8">
         <v>35285</v>
       </c>
       <c r="B373" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="C373" s="2">
         <v>0</v>
@@ -17000,13 +18216,16 @@
       <c r="M373" s="9">
         <v>1900</v>
       </c>
-    </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N373" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="374" spans="1:14">
       <c r="A374" s="8">
         <v>32759</v>
       </c>
       <c r="B374" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="C374" s="2">
         <v>1</v>
@@ -17041,13 +18260,16 @@
       <c r="M374" s="9">
         <v>29500</v>
       </c>
-    </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N374" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="375" spans="1:14">
       <c r="A375" s="8">
         <v>8658</v>
       </c>
       <c r="B375" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="C375" s="2">
         <v>1</v>
@@ -17082,13 +18304,16 @@
       <c r="M375" s="9">
         <v>19900</v>
       </c>
-    </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N375" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="376" spans="1:14">
       <c r="A376" s="8">
         <v>8188</v>
       </c>
       <c r="B376" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="C376" s="2">
         <v>1</v>
@@ -17123,13 +18348,16 @@
       <c r="M376" s="9">
         <v>15900</v>
       </c>
-    </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N376" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="377" spans="1:14">
       <c r="A377" s="8">
         <v>54624</v>
       </c>
       <c r="B377" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="C377" s="2">
         <v>1</v>
@@ -17164,13 +18392,16 @@
       <c r="M377" s="9">
         <v>18900</v>
       </c>
-    </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N377" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="378" spans="1:14">
       <c r="A378" s="8">
         <v>53560</v>
       </c>
       <c r="B378" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="C378" s="2">
         <v>0</v>
@@ -17205,13 +18436,16 @@
       <c r="M378" s="9">
         <v>24700</v>
       </c>
-    </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N378" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="379" spans="1:14">
       <c r="A379" s="8">
         <v>31258</v>
       </c>
       <c r="B379" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="C379" s="2">
         <v>6</v>
@@ -17246,13 +18480,16 @@
       <c r="M379" s="9">
         <v>65400</v>
       </c>
-    </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N379" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="380" spans="1:14">
       <c r="A380" s="8">
         <v>31547</v>
       </c>
       <c r="B380" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="C380" s="2">
         <v>1</v>
@@ -17287,13 +18524,16 @@
       <c r="M380" s="9">
         <v>42900</v>
       </c>
-    </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N380" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="381" spans="1:14">
       <c r="A381" s="8">
         <v>7679</v>
       </c>
       <c r="B381" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="C381" s="2">
         <v>2</v>
@@ -17328,13 +18568,16 @@
       <c r="M381" s="9">
         <v>41600</v>
       </c>
-    </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N381" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="382" spans="1:14">
       <c r="A382" s="8">
         <v>2453</v>
       </c>
       <c r="B382" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="C382" s="2">
         <v>2</v>
@@ -17369,13 +18612,16 @@
       <c r="M382" s="9">
         <v>61800</v>
       </c>
-    </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N382" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="383" spans="1:14">
       <c r="A383" s="8">
         <v>38112</v>
       </c>
       <c r="B383" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="C383" s="2">
         <v>0</v>
@@ -17410,13 +18656,16 @@
       <c r="M383" s="9">
         <v>1800</v>
       </c>
-    </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N383" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="384" spans="1:14">
       <c r="A384" s="8">
         <v>54440</v>
       </c>
       <c r="B384" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="C384" s="2">
         <v>0</v>
@@ -17451,13 +18700,16 @@
       <c r="M384" s="9">
         <v>43200</v>
       </c>
-    </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N384" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="385" spans="1:14">
       <c r="A385" s="8">
         <v>54173</v>
       </c>
       <c r="B385" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="C385" s="2">
         <v>1</v>
@@ -17492,13 +18744,16 @@
       <c r="M385" s="9">
         <v>61400</v>
       </c>
-    </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N385" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="386" spans="1:14">
       <c r="A386" s="8">
         <v>9074</v>
       </c>
       <c r="B386" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="C386" s="2">
         <v>2</v>
@@ -17533,13 +18788,16 @@
       <c r="M386" s="9">
         <v>33000</v>
       </c>
-    </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N386" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="387" spans="1:14">
       <c r="A387" s="8">
         <v>13332</v>
       </c>
       <c r="B387" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="C387" s="2">
         <v>2</v>
@@ -17574,13 +18832,16 @@
       <c r="M387" s="9">
         <v>39000</v>
       </c>
-    </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N387" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="388" spans="1:14">
       <c r="A388" s="8">
         <v>56196</v>
       </c>
       <c r="B388" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="C388" s="2">
         <v>4</v>
@@ -17615,13 +18876,16 @@
       <c r="M388" s="9">
         <v>84000</v>
       </c>
-    </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N388" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="389" spans="1:14">
       <c r="A389" s="8">
         <v>43180</v>
       </c>
       <c r="B389" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="C389" s="2">
         <v>4</v>
@@ -17656,13 +18920,16 @@
       <c r="M389" s="9">
         <v>46000</v>
       </c>
-    </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N389" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="390" spans="1:14">
       <c r="A390" s="8">
         <v>43181</v>
       </c>
       <c r="B390" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="C390" s="2">
         <v>4</v>
@@ -17697,13 +18964,16 @@
       <c r="M390" s="9">
         <v>46000</v>
       </c>
-    </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N390" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="391" spans="1:14">
       <c r="A391" s="8">
         <v>9078</v>
       </c>
       <c r="B391" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="C391" s="2">
         <v>8</v>
@@ -17738,13 +19008,16 @@
       <c r="M391" s="9">
         <v>74400</v>
       </c>
-    </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N391" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="392" spans="1:14">
       <c r="A392" s="8">
         <v>24750</v>
       </c>
       <c r="B392" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="C392" s="2">
         <v>1</v>
@@ -17779,13 +19052,16 @@
       <c r="M392" s="9">
         <v>20500</v>
       </c>
-    </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N392" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="393" spans="1:14">
       <c r="A393" s="8">
         <v>24748</v>
       </c>
       <c r="B393" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="C393" s="2">
         <v>2</v>
@@ -17820,13 +19096,16 @@
       <c r="M393" s="9">
         <v>29800</v>
       </c>
-    </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N393" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="394" spans="1:14">
       <c r="A394" s="8">
         <v>52756</v>
       </c>
       <c r="B394" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="C394" s="2">
         <v>2</v>
@@ -17861,13 +19140,16 @@
       <c r="M394" s="9">
         <v>45800</v>
       </c>
-    </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N394" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="395" spans="1:14">
       <c r="A395" s="8">
         <v>53874</v>
       </c>
       <c r="B395" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="C395" s="2">
         <v>1</v>
@@ -17902,13 +19184,16 @@
       <c r="M395" s="9">
         <v>38900</v>
       </c>
-    </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N395" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="396" spans="1:14">
       <c r="A396" s="8">
         <v>21651</v>
       </c>
       <c r="B396" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="C396" s="2">
         <v>0</v>
@@ -17943,13 +19228,16 @@
       <c r="M396" s="9">
         <v>81700</v>
       </c>
-    </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N396" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="397" spans="1:14">
       <c r="A397" s="8">
         <v>51189</v>
       </c>
       <c r="B397" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="C397" s="2">
         <v>0</v>
@@ -17984,13 +19272,16 @@
       <c r="M397" s="9">
         <v>3200</v>
       </c>
-    </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N397" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="398" spans="1:14">
       <c r="A398" s="8">
         <v>48805</v>
       </c>
       <c r="B398" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="C398" s="2">
         <v>0</v>
@@ -18025,13 +19316,16 @@
       <c r="M398" s="9">
         <v>41600</v>
       </c>
-    </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N398" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="399" spans="1:14">
       <c r="A399" s="8">
         <v>6829</v>
       </c>
       <c r="B399" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="C399" s="2">
         <v>2</v>
@@ -18066,13 +19360,16 @@
       <c r="M399" s="9">
         <v>63600</v>
       </c>
-    </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N399" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="400" spans="1:14">
       <c r="A400" s="8">
         <v>24870</v>
       </c>
       <c r="B400" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="C400" s="2">
         <v>1</v>
@@ -18107,13 +19404,16 @@
       <c r="M400" s="9">
         <v>303600</v>
       </c>
-    </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N400" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="401" spans="1:14">
       <c r="A401" s="8">
         <v>2451</v>
       </c>
       <c r="B401" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="C401" s="2">
         <v>0</v>
@@ -18148,13 +19448,16 @@
       <c r="M401" s="9">
         <v>117300</v>
       </c>
-    </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N401" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="402" spans="1:14">
       <c r="A402" s="8">
         <v>24786</v>
       </c>
       <c r="B402" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="C402" s="2">
         <v>11</v>
@@ -18189,13 +19492,16 @@
       <c r="M402" s="9">
         <v>77000</v>
       </c>
-    </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N402" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="403" spans="1:14">
       <c r="A403" s="8">
         <v>9975</v>
       </c>
       <c r="B403" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="C403" s="2">
         <v>0</v>
@@ -18230,13 +19536,16 @@
       <c r="M403" s="9">
         <v>13800</v>
       </c>
-    </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N403" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="404" spans="1:14">
       <c r="A404" s="8">
         <v>13334</v>
       </c>
       <c r="B404" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="C404" s="2">
         <v>2</v>
@@ -18270,6 +19579,9 @@
       </c>
       <c r="M404" s="9">
         <v>101800</v>
+      </c>
+      <c r="N404" s="11" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
